--- a/misc/ActivityReports.xlsx
+++ b/misc/ActivityReports.xlsx
@@ -25,6 +25,687 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="266">
   <si>
+    <t>Powell Rules</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Accounting Training</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Natural flow comparisons</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Probabalistic Midterm Model</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reports and Events</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Office function</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>PMM</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Background Reading and Discussions</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Thesis reading and discussion related to CRB and Gunnison</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Half Days of work in August: 6</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Full Days of work in August: 13</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Powell Rules</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Discussions with Jim</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Compiling Data comparing results</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kens's Thesis</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Satish's Thesis</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>LaTeX lesson for alan</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ken and Satish's Thesis</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Conference call about CBRFC natural flow data</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Aspinall operations</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>24 month study on riverware</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>24 month study references</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sahana's thesis</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Discussing Gunnison rules</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Setup and Paperwork</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Training </t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Meetings</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Development</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Riverware Simulation Training</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Rule Based Simulation Training </t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Reading C++ Manual </t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Review of aspinall policies</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Activity Report</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Discussion with ken </t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Discussion with balaji and ken</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Analysis of shana's thesis</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shana's thesis</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>24 month study rules</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Accounting Tutorial </t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Meeting with Jim and incorporating his comments. </t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Accounting Training</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Powell ROD</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>PMM meeting</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Forecasting meeting</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>CRSS powell rules</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sick</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Thesis related to CRB and Gunnison</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Future Work </t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Informal Discussions about current work</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Publications</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Adressing comments on Streamflow Forecast framework paper </t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Natural flow and consumptive use reports and analsis</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Activity and accomplishment reports</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Aspinall Unit operation and Gunnison model</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Water Resources Textbook</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Summer Party (Including setup)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Days of work in July: 22</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shortage EIS reading and review</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Addressing Journal article comment</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Journal Article</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>LaTeX Lesson</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Discussion with Ken</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Eis Reading</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Review of notes</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Party setup</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Summer Party</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Water Resources Book</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Future work meeting</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Natural Flow report</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>RFC Depletion data</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Consumptive use report</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Meeting with Balaji</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Incorporating Comments into paper</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Article Comments</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Consumptive uses Report</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>EIS Chapter 4</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Accomplishments report</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bug Fix</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Windows testing branch setup</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Buffcard </t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Solaris Account setup</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Setup of Riverware License</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Addressing article comments</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Talk with Jim about paper</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reading Articles Sent by Ken</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Riverware devlopment exercise from david</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Total *</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Start of Work: June 15</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Days of work in June: 12</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hours</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Plot for paper</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Powell rulkes</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>PMM meeting</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Accounting exercise</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Powell rules</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Accounting class</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Accounting Class</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Flow Comparisons</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Natural flow comparison</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Natural flow comparisons</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Natural flow comparisons</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Final paper revision</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Natural flow figures</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hydrology working group summary</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gathering old work for working group presentation</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Payroll Paperwork </t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Introduction To RiverWare</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>CVS Documentation</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Software Meeting</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Work mMeeting with Ken</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>* Left early the first day of work</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Description</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Windows Account Setup</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Regression test setup on windows</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Familiarization With Riverware Code</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hours</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Training</t>
+  </si>
+  <si>
+    <t>Rule Based Simulation Training</t>
+  </si>
+  <si>
+    <t>Meetings</t>
+  </si>
+  <si>
+    <t>Payroll Paperwork</t>
+  </si>
+  <si>
+    <t>Paperwork and Reports</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Total</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chapter 1 Surplus EIR</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Payroll paperwork</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Daily report setup</t>
+  </si>
+  <si>
+    <t>EIS Appendix U</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Miscellaneous review</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Carly's Thesis</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Daily Reports</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Total</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Revisions to Journal Article</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Powell Rules</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Thing 145</t>
+  </si>
+  <si>
+    <t>Thing 146</t>
+  </si>
+  <si>
+    <t>Thing 147</t>
+  </si>
+  <si>
+    <t>Thing 148</t>
+  </si>
+  <si>
+    <t>Thing 149</t>
+  </si>
+  <si>
+    <t>Thing 150</t>
+  </si>
+  <si>
+    <t>Thing 151</t>
+  </si>
+  <si>
+    <t>Thing 152</t>
+  </si>
+  <si>
+    <t>Thing 153</t>
+  </si>
+  <si>
+    <t>Thing 154</t>
+  </si>
+  <si>
+    <t>Thing 155</t>
+  </si>
+  <si>
+    <t>Thing 156</t>
+  </si>
+  <si>
+    <t>Thing 157</t>
+  </si>
+  <si>
+    <t>Thing 158</t>
+  </si>
+  <si>
+    <t>Thing 159</t>
+  </si>
+  <si>
+    <t>Thing 160</t>
+  </si>
+  <si>
+    <t>Thing 161</t>
+  </si>
+  <si>
+    <t>Thing 162</t>
+  </si>
+  <si>
+    <t>Thing 163</t>
+  </si>
+  <si>
+    <t>Thing 164</t>
+  </si>
+  <si>
+    <t>Thing 165</t>
+  </si>
+  <si>
+    <t>Thing 166</t>
+  </si>
+  <si>
+    <t>Thing 167</t>
+  </si>
+  <si>
+    <t>Thing 168</t>
+  </si>
+  <si>
+    <t>Thing 169</t>
+  </si>
+  <si>
+    <t>Thing 170</t>
+  </si>
+  <si>
+    <t>Thing 171</t>
+  </si>
+  <si>
+    <t>Thing 172</t>
+  </si>
+  <si>
+    <t>Thing 173</t>
+  </si>
+  <si>
+    <t>Thing 174</t>
+  </si>
+  <si>
+    <t>Thing 175</t>
+  </si>
+  <si>
+    <t>Thing 176</t>
+  </si>
+  <si>
+    <t>Thing 177</t>
+  </si>
+  <si>
+    <t>Thing 178</t>
+  </si>
+  <si>
+    <t>Thing 179</t>
+  </si>
+  <si>
+    <t>Thing 180</t>
+  </si>
+  <si>
+    <t>Thing 181</t>
+  </si>
+  <si>
+    <t>Thing 182</t>
+  </si>
+  <si>
+    <t>Thing 183</t>
+  </si>
+  <si>
+    <t>Birthday Celebration</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Accounting</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>EIS Chapter 1</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>EIS Chapter 3</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>EIS Chapter 4</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">EIS Appendix A and N </t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Understanding gunnison rules in riverware</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>July Activity report</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Background Reading</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Thesis related to CRB and Gunnison</t>
+  </si>
+  <si>
     <t>Powell Rules and Expanded 24 month study</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -303,687 +984,6 @@
   </si>
   <si>
     <t>Working group report</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Final paper revision</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Natural flow figures</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hydrology working group summary</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gathering old work for working group presentation</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Payroll Paperwork </t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Introduction To RiverWare</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>CVS Documentation</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Software Meeting</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Work mMeeting with Ken</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>* Left early the first day of work</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Description</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Windows Account Setup</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Regression test setup on windows</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Familiarization With Riverware Code</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hours</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>Training</t>
-  </si>
-  <si>
-    <t>Rule Based Simulation Training</t>
-  </si>
-  <si>
-    <t>Meetings</t>
-  </si>
-  <si>
-    <t>Payroll Paperwork</t>
-  </si>
-  <si>
-    <t>Paperwork and Reports</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Total</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Chapter 1 Surplus EIR</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Payroll paperwork</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Daily report setup</t>
-  </si>
-  <si>
-    <t>EIS Appendix U</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Miscellaneous review</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Carly's Thesis</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Daily Reports</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Total</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Revisions to Journal Article</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Powell Rules</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Thing 145</t>
-  </si>
-  <si>
-    <t>Thing 146</t>
-  </si>
-  <si>
-    <t>Thing 147</t>
-  </si>
-  <si>
-    <t>Thing 148</t>
-  </si>
-  <si>
-    <t>Thing 149</t>
-  </si>
-  <si>
-    <t>Thing 150</t>
-  </si>
-  <si>
-    <t>Thing 151</t>
-  </si>
-  <si>
-    <t>Thing 152</t>
-  </si>
-  <si>
-    <t>Thing 153</t>
-  </si>
-  <si>
-    <t>Thing 154</t>
-  </si>
-  <si>
-    <t>Thing 155</t>
-  </si>
-  <si>
-    <t>Thing 156</t>
-  </si>
-  <si>
-    <t>Thing 157</t>
-  </si>
-  <si>
-    <t>Thing 158</t>
-  </si>
-  <si>
-    <t>Thing 159</t>
-  </si>
-  <si>
-    <t>Thing 160</t>
-  </si>
-  <si>
-    <t>Thing 161</t>
-  </si>
-  <si>
-    <t>Thing 162</t>
-  </si>
-  <si>
-    <t>Thing 163</t>
-  </si>
-  <si>
-    <t>Thing 164</t>
-  </si>
-  <si>
-    <t>Thing 165</t>
-  </si>
-  <si>
-    <t>Thing 166</t>
-  </si>
-  <si>
-    <t>Thing 167</t>
-  </si>
-  <si>
-    <t>Thing 168</t>
-  </si>
-  <si>
-    <t>Thing 169</t>
-  </si>
-  <si>
-    <t>Thing 170</t>
-  </si>
-  <si>
-    <t>Thing 171</t>
-  </si>
-  <si>
-    <t>Thing 172</t>
-  </si>
-  <si>
-    <t>Thing 173</t>
-  </si>
-  <si>
-    <t>Thing 174</t>
-  </si>
-  <si>
-    <t>Thing 175</t>
-  </si>
-  <si>
-    <t>Thing 176</t>
-  </si>
-  <si>
-    <t>Thing 177</t>
-  </si>
-  <si>
-    <t>Thing 178</t>
-  </si>
-  <si>
-    <t>Thing 179</t>
-  </si>
-  <si>
-    <t>Thing 180</t>
-  </si>
-  <si>
-    <t>Thing 181</t>
-  </si>
-  <si>
-    <t>Thing 182</t>
-  </si>
-  <si>
-    <t>Thing 183</t>
-  </si>
-  <si>
-    <t>Birthday Celebration</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Accounting</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>EIS Chapter 1</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>EIS Chapter 3</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>EIS Chapter 4</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">EIS Appendix A and N </t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Understanding gunnison rules in riverware</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>July Activity report</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Background Reading</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Thesis related to CRB and Gunnison</t>
-  </si>
-  <si>
-    <t>Thesis related to CRB and Gunnison</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Future Work </t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Informal Discussions about current work</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Publications</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Adressing comments on Streamflow Forecast framework paper </t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Natural flow and consumptive use reports and analsis</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Activity and accomplishment reports</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Aspinall Unit operation and Gunnison model</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Water Resources Textbook</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Summer Party (Including setup)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Days of work in July: 22</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Shortage EIS reading and review</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Addressing Journal article comment</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Journal Article</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>LaTeX Lesson</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Discussion with Ken</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Eis Reading</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Review of notes</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Party setup</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Summer Party</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Water Resources Book</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Future work meeting</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Natural Flow report</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>RFC Depletion data</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Consumptive use report</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Meeting with Balaji</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Incorporating Comments into paper</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Article Comments</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Consumptive uses Report</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>EIS Chapter 4</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Accomplishments report</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bug Fix</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Windows testing branch setup</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Buffcard </t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Solaris Account setup</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Setup of Riverware License</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Addressing article comments</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Talk with Jim about paper</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Reading Articles Sent by Ken</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Riverware devlopment exercise from david</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Total *</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Start of Work: June 15</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Days of work in June: 12</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hours</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Plot for paper</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Powell rulkes</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>PMM meeting</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Accounting exercise</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Powell rules</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Accounting class</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Accounting Class</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Flow Comparisons</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Natural flow comparison</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Natural flow comparisons</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Natural flow comparisons</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Powell Rules</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Accounting Training</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Natural flow comparisons</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Probabalistic Midterm Model</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Reports and Events</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Office function</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>PMM</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Background Reading and Discussions</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Thesis reading and discussion related to CRB and Gunnison</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Half Days of work in August: 6</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Full Days of work in August: 13</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Powell Rules</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Discussions with Jim</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Compiling Data comparing results</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Kens's Thesis</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Satish's Thesis</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>LaTeX lesson for alan</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ken and Satish's Thesis</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Conference call about CBRFC natural flow data</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Aspinall operations</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>24 month study on riverware</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>24 month study references</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sahana's thesis</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Discussing Gunnison rules</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Setup and Paperwork</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Training </t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Meetings</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Development</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Riverware Simulation Training</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Rule Based Simulation Training </t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Reading C++ Manual </t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Review of aspinall policies</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Activity Report</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Discussion with ken </t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Discussion with balaji and ken</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Analysis of shana's thesis</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Shana's thesis</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>24 month study rules</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Accounting Tutorial </t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Meeting with Jim and incorporating his comments. </t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Accounting Training</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Powell ROD</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>PMM meeting</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Forecasting meeting</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>CRSS powell rules</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sick</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -991,12 +991,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-  </numFmts>
   <fonts count="7">
     <font>
       <sz val="10"/>
@@ -1113,21 +1107,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1470,21 +1464,21 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>206</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>207</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="14" thickBot="1">
       <c r="A4" s="2" t="s">
-        <v>208</v>
+        <v>89</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2" t="s">
-        <v>94</v>
+        <v>111</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="14" thickTop="1">
@@ -1494,7 +1488,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="C6" s="1" t="s">
-        <v>245</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1502,7 +1496,7 @@
         <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>248</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1510,7 +1504,7 @@
         <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>249</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1518,7 +1512,7 @@
         <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>250</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1526,7 +1520,7 @@
         <v>3</v>
       </c>
       <c r="C10" t="s">
-        <v>89</v>
+        <v>106</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1534,7 +1528,7 @@
         <v>2.5</v>
       </c>
       <c r="C11" t="s">
-        <v>203</v>
+        <v>84</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1542,12 +1536,12 @@
         <v>2</v>
       </c>
       <c r="C12" t="s">
-        <v>90</v>
+        <v>107</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="C14" s="1" t="s">
-        <v>246</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -1555,7 +1549,7 @@
         <v>1</v>
       </c>
       <c r="C15" t="s">
-        <v>91</v>
+        <v>108</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -1563,12 +1557,12 @@
         <v>3</v>
       </c>
       <c r="C16" t="s">
-        <v>92</v>
+        <v>109</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="C18" s="1" t="s">
-        <v>244</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -1576,7 +1570,7 @@
         <v>6</v>
       </c>
       <c r="C19" t="s">
-        <v>88</v>
+        <v>105</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -1584,7 +1578,7 @@
         <v>2</v>
       </c>
       <c r="C20" t="s">
-        <v>198</v>
+        <v>79</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -1592,7 +1586,7 @@
         <v>2</v>
       </c>
       <c r="C21" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -1600,7 +1594,7 @@
         <v>2</v>
       </c>
       <c r="C22" t="s">
-        <v>199</v>
+        <v>80</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -1608,7 +1602,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="s">
-        <v>96</v>
+        <v>113</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -1616,7 +1610,7 @@
         <v>1</v>
       </c>
       <c r="C24" t="s">
-        <v>197</v>
+        <v>78</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -1624,12 +1618,12 @@
         <v>1</v>
       </c>
       <c r="C25" t="s">
-        <v>200</v>
+        <v>81</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="C27" s="1" t="s">
-        <v>247</v>
+        <v>27</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -1637,7 +1631,7 @@
         <v>4</v>
       </c>
       <c r="C28" t="s">
-        <v>97</v>
+        <v>114</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -1645,7 +1639,7 @@
         <v>4</v>
       </c>
       <c r="C29" t="s">
-        <v>204</v>
+        <v>85</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -1653,12 +1647,12 @@
         <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>196</v>
+        <v>77</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="C32" s="1" t="s">
-        <v>205</v>
+        <v>86</v>
       </c>
     </row>
     <row r="33" spans="1:1">
@@ -1669,7 +1663,7 @@
     </row>
     <row r="36" spans="1:1">
       <c r="A36" t="s">
-        <v>93</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -1702,246 +1696,246 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="25" t="s">
-        <v>175</v>
-      </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
+      <c r="A1" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
     </row>
     <row r="3" spans="1:5" ht="14" thickBot="1">
-      <c r="A3" s="26" t="s">
-        <v>98</v>
+      <c r="A3" s="23" t="s">
+        <v>115</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>99</v>
+        <v>116</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="14" thickTop="1"/>
     <row r="5" spans="1:5">
-      <c r="A5" s="23" t="s">
-        <v>100</v>
-      </c>
-      <c r="B5" s="24"/>
-      <c r="C5" s="24"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
+      <c r="A5" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="B5" s="28"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="15">
         <f>7.25+5</f>
         <v>12.25</v>
       </c>
-      <c r="B6" s="22" t="s">
-        <v>101</v>
-      </c>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
+      <c r="B6" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
     </row>
     <row r="7" spans="1:5" s="12" customFormat="1">
       <c r="A7" s="15">
         <v>21</v>
       </c>
-      <c r="B7" s="22" t="s">
-        <v>170</v>
-      </c>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
+      <c r="B7" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="15">
         <v>26.5</v>
       </c>
-      <c r="B8" s="22" t="s">
-        <v>176</v>
-      </c>
-      <c r="C8" s="22"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="22"/>
+      <c r="B8" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="C8" s="24"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
     </row>
     <row r="9" spans="1:5" s="12" customFormat="1">
       <c r="A9" s="15">
         <v>7.5</v>
       </c>
-      <c r="B9" s="22" t="s">
-        <v>173</v>
-      </c>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="22"/>
+      <c r="B9" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="C9" s="24"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="24"/>
     </row>
     <row r="10" spans="1:5" s="11" customFormat="1">
       <c r="A10" s="15">
         <v>22.5</v>
       </c>
-      <c r="B10" s="22" t="s">
-        <v>172</v>
-      </c>
-      <c r="C10" s="22"/>
-      <c r="D10" s="22"/>
-      <c r="E10" s="22"/>
+      <c r="B10" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="C10" s="24"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="24"/>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="15">
         <v>27</v>
       </c>
-      <c r="B11" s="22" t="s">
-        <v>164</v>
-      </c>
-      <c r="C11" s="22"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="22"/>
+      <c r="B11" s="24" t="s">
+        <v>181</v>
+      </c>
+      <c r="C11" s="24"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="20"/>
-      <c r="B12" s="20"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
+      <c r="A12" s="26"/>
+      <c r="B12" s="26"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="26"/>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="21" t="s">
-        <v>102</v>
-      </c>
-      <c r="B13" s="21"/>
-      <c r="C13" s="21"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="21"/>
+      <c r="A13" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="B13" s="25"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="25"/>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="16">
         <v>0.75</v>
       </c>
-      <c r="B14" s="22" t="s">
-        <v>166</v>
-      </c>
-      <c r="C14" s="22"/>
-      <c r="D14" s="22"/>
-      <c r="E14" s="22"/>
+      <c r="B14" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" s="24"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="24"/>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="16">
         <v>5.5</v>
       </c>
-      <c r="B15" s="22" t="s">
-        <v>167</v>
-      </c>
-      <c r="C15" s="22"/>
-      <c r="D15" s="22"/>
-      <c r="E15" s="22"/>
+      <c r="B15" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" s="24"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="24"/>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="20"/>
-      <c r="B16" s="20"/>
-      <c r="C16" s="20"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
+      <c r="A16" s="26"/>
+      <c r="B16" s="26"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="26"/>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="21" t="s">
-        <v>104</v>
-      </c>
-      <c r="B17" s="21"/>
-      <c r="C17" s="21"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="21"/>
+      <c r="A17" s="25" t="s">
+        <v>121</v>
+      </c>
+      <c r="B17" s="25"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="25"/>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="16">
         <v>1</v>
       </c>
-      <c r="B18" s="22" t="s">
-        <v>103</v>
-      </c>
-      <c r="C18" s="22"/>
-      <c r="D18" s="22"/>
-      <c r="E18" s="22"/>
+      <c r="B18" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="C18" s="24"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="24"/>
     </row>
     <row r="19" spans="1:5" s="12" customFormat="1">
       <c r="A19" s="16">
         <v>7</v>
       </c>
-      <c r="B19" s="22" t="s">
-        <v>174</v>
-      </c>
-      <c r="C19" s="22"/>
-      <c r="D19" s="22"/>
-      <c r="E19" s="22"/>
+      <c r="B19" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="C19" s="24"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="24"/>
     </row>
     <row r="20" spans="1:5" s="12" customFormat="1">
       <c r="A20" s="16">
         <v>2.25</v>
       </c>
-      <c r="B20" s="22" t="s">
-        <v>171</v>
-      </c>
-      <c r="C20" s="22"/>
-      <c r="D20" s="22"/>
-      <c r="E20" s="22"/>
+      <c r="B20" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="C20" s="24"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="24"/>
     </row>
     <row r="21" spans="1:5" s="12" customFormat="1">
-      <c r="A21" s="20"/>
-      <c r="B21" s="20"/>
-      <c r="C21" s="20"/>
-      <c r="D21" s="20"/>
-      <c r="E21" s="20"/>
+      <c r="A21" s="26"/>
+      <c r="B21" s="26"/>
+      <c r="C21" s="26"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="26"/>
     </row>
     <row r="22" spans="1:5" s="12" customFormat="1">
-      <c r="A22" s="21" t="s">
-        <v>168</v>
-      </c>
-      <c r="B22" s="21"/>
-      <c r="C22" s="21"/>
-      <c r="D22" s="21"/>
-      <c r="E22" s="21"/>
+      <c r="A22" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="B22" s="25"/>
+      <c r="C22" s="25"/>
+      <c r="D22" s="25"/>
+      <c r="E22" s="25"/>
     </row>
     <row r="23" spans="1:5" s="12" customFormat="1">
       <c r="A23" s="16">
         <f>Daily!A28+Daily!A33+Daily!A37+Daily!A41+Daily!A46+Daily!A70+Daily!A74</f>
         <v>43</v>
       </c>
-      <c r="B23" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="C23" s="22"/>
-      <c r="D23" s="22"/>
-      <c r="E23" s="22"/>
+      <c r="B23" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="C23" s="24"/>
+      <c r="D23" s="24"/>
+      <c r="E23" s="24"/>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="20"/>
-      <c r="B24" s="20"/>
-      <c r="C24" s="20"/>
-      <c r="D24" s="20"/>
-      <c r="E24" s="20"/>
+      <c r="A24" s="26"/>
+      <c r="B24" s="26"/>
+      <c r="C24" s="26"/>
+      <c r="D24" s="26"/>
+      <c r="E24" s="26"/>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="21" t="s">
-        <v>163</v>
-      </c>
-      <c r="B25" s="21"/>
-      <c r="C25" s="21"/>
-      <c r="D25" s="21"/>
-      <c r="E25" s="21"/>
+      <c r="A25" s="25" t="s">
+        <v>180</v>
+      </c>
+      <c r="B25" s="25"/>
+      <c r="C25" s="25"/>
+      <c r="D25" s="25"/>
+      <c r="E25" s="25"/>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="16">
         <f>Daily!A7+Daily!A84+Daily!A85+Daily!A90+Daily!A104</f>
         <v>27</v>
       </c>
-      <c r="B26" s="22" t="s">
-        <v>165</v>
-      </c>
-      <c r="C26" s="22"/>
-      <c r="D26" s="22"/>
-      <c r="E26" s="22"/>
+      <c r="B26" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="C26" s="24"/>
+      <c r="D26" s="24"/>
+      <c r="E26" s="24"/>
     </row>
     <row r="27" spans="1:5">
       <c r="B27" s="4"/>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="4" t="s">
-        <v>105</v>
+        <v>122</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1953,6 +1947,14 @@
   </sheetData>
   <sheetCalcPr fullCalcOnLoad="1"/>
   <mergeCells count="24">
+    <mergeCell ref="A24:E24"/>
+    <mergeCell ref="A25:E25"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B19:E19"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A3"/>
     <mergeCell ref="B14:E14"/>
@@ -1969,14 +1971,6 @@
     <mergeCell ref="B7:E7"/>
     <mergeCell ref="A12:E12"/>
     <mergeCell ref="B10:E10"/>
-    <mergeCell ref="A24:E24"/>
-    <mergeCell ref="A25:E25"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="B19:E19"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2006,18 +2000,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="13" customFormat="1">
-      <c r="A1" s="25" t="s">
-        <v>230</v>
-      </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
+      <c r="A1" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="25" t="s">
-        <v>229</v>
-      </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
+      <c r="A2" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
       <c r="D2" s="13"/>
       <c r="E2" s="13"/>
     </row>
@@ -2030,10 +2024,10 @@
     </row>
     <row r="4" spans="1:5" ht="14" thickBot="1">
       <c r="A4" s="14" t="s">
-        <v>98</v>
+        <v>115</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>99</v>
+        <v>116</v>
       </c>
       <c r="C4" s="13"/>
       <c r="D4" s="13"/>
@@ -2047,187 +2041,187 @@
       <c r="E5" s="13"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="23" t="s">
-        <v>100</v>
-      </c>
-      <c r="B6" s="24"/>
-      <c r="C6" s="24"/>
-      <c r="D6" s="24"/>
-      <c r="E6" s="24"/>
+      <c r="A6" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="B6" s="28"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="15">
         <f>Daily!A130+Daily!A135+Daily!A157+Daily!A162+Daily!A167+Daily!A172+Daily!A176+Daily!A180</f>
         <v>47.5</v>
       </c>
-      <c r="B7" s="22" t="s">
-        <v>221</v>
-      </c>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
+      <c r="B7" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="20"/>
-      <c r="B8" s="20"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
+      <c r="A8" s="26"/>
+      <c r="B8" s="26"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="23" t="s">
-        <v>223</v>
-      </c>
-      <c r="B9" s="24"/>
-      <c r="C9" s="24"/>
-      <c r="D9" s="24"/>
-      <c r="E9" s="24"/>
+      <c r="A9" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="28"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="28"/>
     </row>
     <row r="10" spans="1:5" s="13" customFormat="1">
       <c r="A10" s="15">
         <f>Daily!A136+Daily!A142+Daily!A155+Daily!A163+Daily!A168+Daily!A200</f>
         <v>21.5</v>
       </c>
-      <c r="B10" s="22" t="s">
-        <v>231</v>
-      </c>
-      <c r="C10" s="22"/>
-      <c r="D10" s="22"/>
-      <c r="E10" s="22"/>
+      <c r="B10" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="24"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="24"/>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="15">
         <f>Daily!A184+Daily!A188+Daily!A192+Daily!A196</f>
         <v>18.5</v>
       </c>
-      <c r="B11" s="22" t="s">
-        <v>222</v>
-      </c>
-      <c r="C11" s="22"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="22"/>
+      <c r="B11" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" s="24"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="20"/>
-      <c r="B12" s="20"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
+      <c r="A12" s="26"/>
+      <c r="B12" s="26"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="26"/>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="21" t="s">
-        <v>102</v>
-      </c>
-      <c r="B13" s="21"/>
-      <c r="C13" s="21"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="21"/>
+      <c r="A13" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="B13" s="25"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="25"/>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="16">
         <f>1.5</f>
         <v>1.5</v>
       </c>
-      <c r="B14" s="22" t="s">
-        <v>226</v>
-      </c>
-      <c r="C14" s="22"/>
-      <c r="D14" s="22"/>
-      <c r="E14" s="22"/>
+      <c r="B14" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="24"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="24"/>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="20"/>
-      <c r="B15" s="20"/>
-      <c r="C15" s="20"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
+      <c r="A15" s="26"/>
+      <c r="B15" s="26"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="26"/>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="21" t="s">
-        <v>224</v>
-      </c>
-      <c r="B16" s="21"/>
-      <c r="C16" s="21"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="21"/>
+      <c r="A16" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" s="25"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="25"/>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="16">
         <v>1</v>
       </c>
-      <c r="B17" s="22" t="s">
-        <v>225</v>
-      </c>
-      <c r="C17" s="22"/>
-      <c r="D17" s="22"/>
-      <c r="E17" s="22"/>
+      <c r="B17" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="24"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="24"/>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="16">
         <v>3</v>
       </c>
-      <c r="B18" s="22" t="s">
-        <v>171</v>
-      </c>
-      <c r="C18" s="22"/>
-      <c r="D18" s="22"/>
-      <c r="E18" s="22"/>
+      <c r="B18" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="C18" s="24"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="24"/>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="20"/>
-      <c r="B19" s="20"/>
-      <c r="C19" s="20"/>
-      <c r="D19" s="20"/>
-      <c r="E19" s="20"/>
+      <c r="A19" s="26"/>
+      <c r="B19" s="26"/>
+      <c r="C19" s="26"/>
+      <c r="D19" s="26"/>
+      <c r="E19" s="26"/>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="21" t="s">
-        <v>168</v>
-      </c>
-      <c r="B20" s="21"/>
-      <c r="C20" s="21"/>
-      <c r="D20" s="21"/>
-      <c r="E20" s="21"/>
+      <c r="A20" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="B20" s="25"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="25"/>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="16">
         <f>3.5+2</f>
         <v>5.5</v>
       </c>
-      <c r="B21" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="C21" s="22"/>
-      <c r="D21" s="22"/>
-      <c r="E21" s="22"/>
+      <c r="B21" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="C21" s="24"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="24"/>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="20"/>
-      <c r="B22" s="20"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
+      <c r="A22" s="26"/>
+      <c r="B22" s="26"/>
+      <c r="C22" s="26"/>
+      <c r="D22" s="26"/>
+      <c r="E22" s="26"/>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="21" t="s">
-        <v>227</v>
-      </c>
-      <c r="B23" s="21"/>
-      <c r="C23" s="21"/>
-      <c r="D23" s="21"/>
-      <c r="E23" s="21"/>
+      <c r="A23" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="B23" s="25"/>
+      <c r="C23" s="25"/>
+      <c r="D23" s="25"/>
+      <c r="E23" s="25"/>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="16">
         <f>Daily!A108+Daily!A109+Daily!A114+Daily!A116+Daily!A120+Daily!A121+Daily!A127+Daily!A141</f>
         <v>28</v>
       </c>
-      <c r="B24" s="22" t="s">
-        <v>228</v>
-      </c>
-      <c r="C24" s="22"/>
-      <c r="D24" s="22"/>
-      <c r="E24" s="22"/>
+      <c r="B24" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" s="24"/>
+      <c r="D24" s="24"/>
+      <c r="E24" s="24"/>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="13"/>
@@ -2238,7 +2232,7 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="4" t="s">
-        <v>105</v>
+        <v>122</v>
       </c>
       <c r="B26" s="13"/>
       <c r="C26" s="13"/>
@@ -2258,6 +2252,11 @@
   </sheetData>
   <sheetCalcPr fullCalcOnLoad="1"/>
   <mergeCells count="21">
+    <mergeCell ref="A20:E20"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="A22:E22"/>
+    <mergeCell ref="A23:E23"/>
+    <mergeCell ref="B24:E24"/>
     <mergeCell ref="B18:E18"/>
     <mergeCell ref="A19:E19"/>
     <mergeCell ref="A1:C1"/>
@@ -2274,11 +2273,6 @@
     <mergeCell ref="A15:E15"/>
     <mergeCell ref="A16:E16"/>
     <mergeCell ref="B17:E17"/>
-    <mergeCell ref="A20:E20"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="A22:E22"/>
-    <mergeCell ref="A23:E23"/>
-    <mergeCell ref="B24:E24"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2307,88 +2301,88 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="25" t="s">
-        <v>230</v>
-      </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
+      <c r="A1" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="25" t="s">
-        <v>229</v>
-      </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
+      <c r="A2" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
     </row>
     <row r="4" spans="1:5" ht="14" thickBot="1">
       <c r="A4" s="19" t="s">
-        <v>98</v>
+        <v>115</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>99</v>
+        <v>116</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="14" thickTop="1"/>
     <row r="6" spans="1:5">
-      <c r="A6" s="23" t="s">
-        <v>223</v>
-      </c>
-      <c r="B6" s="24"/>
-      <c r="C6" s="24"/>
-      <c r="D6" s="24"/>
-      <c r="E6" s="24"/>
+      <c r="A6" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="28"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="15">
         <f>Daily!A204+Daily!A226+Daily!A230</f>
         <v>11.5</v>
       </c>
-      <c r="B7" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
+      <c r="B7" s="24" t="s">
+        <v>182</v>
+      </c>
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="15">
         <f>Daily!A208+Daily!A212+Daily!A216+Daily!A220+Daily!A225+Daily!A235+Daily!A239+Daily!A243+Daily!A248+Daily!A256+Daily!A274+Daily!A278</f>
         <v>46</v>
       </c>
-      <c r="B8" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="22"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="22"/>
+      <c r="B8" s="24" t="s">
+        <v>195</v>
+      </c>
+      <c r="C8" s="24"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="20"/>
-      <c r="B9" s="20"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
+      <c r="A9" s="26"/>
+      <c r="B9" s="26"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="21" t="s">
-        <v>102</v>
-      </c>
-      <c r="B10" s="21"/>
-      <c r="C10" s="21"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="21"/>
+      <c r="A10" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="B10" s="25"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="16">
         <f>Daily!A244</f>
         <v>2</v>
       </c>
-      <c r="B11" s="22" t="s">
-        <v>226</v>
-      </c>
-      <c r="C11" s="22"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="22"/>
+      <c r="B11" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="24"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="16">
@@ -2396,7 +2390,7 @@
         <v>1</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>8</v>
+        <v>190</v>
       </c>
       <c r="C12" s="17"/>
       <c r="D12" s="17"/>
@@ -2407,101 +2401,101 @@
         <f>Daily!A234+Daily!A273</f>
         <v>3.5</v>
       </c>
-      <c r="B13" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" s="22"/>
-      <c r="D13" s="22"/>
-      <c r="E13" s="22"/>
+      <c r="B13" s="24" t="s">
+        <v>189</v>
+      </c>
+      <c r="C13" s="24"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="24"/>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="16">
         <v>0.5</v>
       </c>
-      <c r="B14" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14" s="22"/>
-      <c r="D14" s="22"/>
-      <c r="E14" s="22"/>
+      <c r="B14" s="24" t="s">
+        <v>188</v>
+      </c>
+      <c r="C14" s="24"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="24"/>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="20"/>
-      <c r="B15" s="20"/>
-      <c r="C15" s="20"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
+      <c r="A15" s="26"/>
+      <c r="B15" s="26"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="26"/>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="21" t="s">
-        <v>224</v>
-      </c>
-      <c r="B16" s="21"/>
-      <c r="C16" s="21"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="21"/>
+      <c r="A16" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" s="25"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="25"/>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="16">
         <f>Daily!A269+Daily!A265+Daily!A260+Daily!A254</f>
         <v>10.5</v>
       </c>
-      <c r="B17" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="C17" s="22"/>
-      <c r="D17" s="22"/>
-      <c r="E17" s="22"/>
+      <c r="B17" s="24" t="s">
+        <v>192</v>
+      </c>
+      <c r="C17" s="24"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="24"/>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="16">
         <v>3</v>
       </c>
-      <c r="B18" s="22" t="s">
-        <v>171</v>
-      </c>
-      <c r="C18" s="22"/>
-      <c r="D18" s="22"/>
-      <c r="E18" s="22"/>
+      <c r="B18" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="C18" s="24"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="24"/>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="20"/>
-      <c r="B19" s="20"/>
-      <c r="C19" s="20"/>
-      <c r="D19" s="20"/>
-      <c r="E19" s="20"/>
+      <c r="A19" s="26"/>
+      <c r="B19" s="26"/>
+      <c r="C19" s="26"/>
+      <c r="D19" s="26"/>
+      <c r="E19" s="26"/>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="21" t="s">
-        <v>168</v>
-      </c>
-      <c r="B20" s="21"/>
-      <c r="C20" s="21"/>
-      <c r="D20" s="21"/>
-      <c r="E20" s="21"/>
+      <c r="A20" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="B20" s="25"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="25"/>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="16">
         <f>Daily!A255+Daily!A261</f>
         <v>5</v>
       </c>
-      <c r="B21" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="C21" s="22"/>
-      <c r="D21" s="22"/>
-      <c r="E21" s="22"/>
+      <c r="B21" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="C21" s="24"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="24"/>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="20"/>
-      <c r="B22" s="20"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
+      <c r="A22" s="26"/>
+      <c r="B22" s="26"/>
+      <c r="C22" s="26"/>
+      <c r="D22" s="26"/>
+      <c r="E22" s="26"/>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="4" t="s">
-        <v>105</v>
+        <v>122</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -2513,6 +2507,14 @@
   </sheetData>
   <sheetCalcPr fullCalcOnLoad="1"/>
   <mergeCells count="18">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="A9:E9"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="B14:E14"/>
     <mergeCell ref="A22:E22"/>
     <mergeCell ref="B11:E11"/>
     <mergeCell ref="B13:E13"/>
@@ -2522,15 +2524,7 @@
     <mergeCell ref="A19:E19"/>
     <mergeCell ref="A20:E20"/>
     <mergeCell ref="B21:E21"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="A9:E9"/>
-    <mergeCell ref="A10:E10"/>
-    <mergeCell ref="B14:E14"/>
     <mergeCell ref="A15:E15"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A6:E6"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2558,7 +2552,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="4" t="s">
-        <v>112</v>
+        <v>129</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2571,7 +2565,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>107</v>
+        <v>124</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -2579,7 +2573,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>108</v>
+        <v>125</v>
       </c>
     </row>
     <row r="6" spans="1:2" s="5" customFormat="1">
@@ -2587,7 +2581,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>106</v>
+        <v>123</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -2595,7 +2589,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>111</v>
+        <v>128</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -2604,7 +2598,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -2617,7 +2611,7 @@
         <v>2</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>157</v>
+        <v>174</v>
       </c>
     </row>
     <row r="12" spans="1:2" s="8" customFormat="1">
@@ -2625,7 +2619,7 @@
         <v>4</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>158</v>
+        <v>175</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -2633,7 +2627,7 @@
         <v>2</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>159</v>
+        <v>176</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -2642,7 +2636,7 @@
         <v>8</v>
       </c>
       <c r="B14" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -2655,7 +2649,7 @@
         <v>1</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>195</v>
+        <v>76</v>
       </c>
     </row>
     <row r="18" spans="1:2" s="8" customFormat="1">
@@ -2663,7 +2657,7 @@
         <v>4</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>194</v>
+        <v>75</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -2671,7 +2665,7 @@
         <v>3.5</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>160</v>
+        <v>177</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -2680,7 +2674,7 @@
         <v>8.5</v>
       </c>
       <c r="B20" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -2693,7 +2687,7 @@
         <v>7</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>109</v>
+        <v>126</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -2701,7 +2695,7 @@
         <v>1</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>110</v>
+        <v>127</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -2710,7 +2704,7 @@
         <v>8</v>
       </c>
       <c r="B25" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -2723,7 +2717,7 @@
         <v>7</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>201</v>
+        <v>82</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -2731,7 +2725,7 @@
         <v>1</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>202</v>
+        <v>83</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -2740,7 +2734,7 @@
         <v>8</v>
       </c>
       <c r="B30" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -2753,7 +2747,7 @@
         <v>8</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>114</v>
+        <v>131</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -2762,7 +2756,7 @@
         <v>8</v>
       </c>
       <c r="B34" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -2775,7 +2769,7 @@
         <v>8</v>
       </c>
       <c r="B37" s="12" t="s">
-        <v>177</v>
+        <v>58</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -2784,7 +2778,7 @@
         <v>8</v>
       </c>
       <c r="B38" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -2797,7 +2791,7 @@
         <v>7.5</v>
       </c>
       <c r="B41" s="12" t="s">
-        <v>178</v>
+        <v>59</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -2805,7 +2799,7 @@
         <v>0.5</v>
       </c>
       <c r="B42" s="12" t="s">
-        <v>179</v>
+        <v>60</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -2814,7 +2808,7 @@
         <v>8</v>
       </c>
       <c r="B43" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -2827,7 +2821,7 @@
         <v>4</v>
       </c>
       <c r="B46" s="12" t="s">
-        <v>178</v>
+        <v>59</v>
       </c>
     </row>
     <row r="47" spans="1:2" s="12" customFormat="1">
@@ -2835,7 +2829,7 @@
         <v>1.5</v>
       </c>
       <c r="B47" s="12" t="s">
-        <v>180</v>
+        <v>61</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -2843,7 +2837,7 @@
         <v>2.5</v>
       </c>
       <c r="B48" s="12" t="s">
-        <v>181</v>
+        <v>62</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -2852,7 +2846,7 @@
         <v>8</v>
       </c>
       <c r="B49" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -2865,7 +2859,7 @@
         <v>1</v>
       </c>
       <c r="B52" s="12" t="s">
-        <v>182</v>
+        <v>63</v>
       </c>
     </row>
     <row r="53" spans="1:2" s="12" customFormat="1">
@@ -2873,7 +2867,7 @@
         <v>2</v>
       </c>
       <c r="B53" s="12" t="s">
-        <v>183</v>
+        <v>64</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -2881,7 +2875,7 @@
         <v>4</v>
       </c>
       <c r="B54" s="12" t="s">
-        <v>184</v>
+        <v>65</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -2890,7 +2884,7 @@
         <v>7</v>
       </c>
       <c r="B55" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -2903,7 +2897,7 @@
         <v>7.5</v>
       </c>
       <c r="B58" s="12" t="s">
-        <v>185</v>
+        <v>66</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -2911,7 +2905,7 @@
         <v>0.75</v>
       </c>
       <c r="B59" s="12" t="s">
-        <v>186</v>
+        <v>67</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -2920,7 +2914,7 @@
         <v>8.25</v>
       </c>
       <c r="B60" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -2933,7 +2927,7 @@
         <v>5</v>
       </c>
       <c r="B63" s="12" t="s">
-        <v>187</v>
+        <v>68</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -2941,7 +2935,7 @@
         <v>3</v>
       </c>
       <c r="B64" s="12" t="s">
-        <v>188</v>
+        <v>69</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -2950,7 +2944,7 @@
         <v>8</v>
       </c>
       <c r="B65" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -2963,7 +2957,7 @@
         <v>1</v>
       </c>
       <c r="B68" s="12" t="s">
-        <v>189</v>
+        <v>70</v>
       </c>
     </row>
     <row r="69" spans="1:2" s="12" customFormat="1">
@@ -2971,7 +2965,7 @@
         <v>1.5</v>
       </c>
       <c r="B69" s="12" t="s">
-        <v>190</v>
+        <v>71</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -2979,7 +2973,7 @@
         <v>5.5</v>
       </c>
       <c r="B70" s="12" t="s">
-        <v>191</v>
+        <v>72</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -2988,7 +2982,7 @@
         <v>8</v>
       </c>
       <c r="B71" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -3001,7 +2995,7 @@
         <v>3</v>
       </c>
       <c r="B74" s="12" t="s">
-        <v>192</v>
+        <v>73</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -3009,7 +3003,7 @@
         <v>5</v>
       </c>
       <c r="B75" s="12" t="s">
-        <v>193</v>
+        <v>74</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -3018,7 +3012,7 @@
         <v>8</v>
       </c>
       <c r="B76" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -3031,7 +3025,7 @@
         <v>1</v>
       </c>
       <c r="B79" s="12" t="s">
-        <v>232</v>
+        <v>12</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -3039,7 +3033,7 @@
         <v>7</v>
       </c>
       <c r="B80" s="12" t="s">
-        <v>233</v>
+        <v>13</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -3048,7 +3042,7 @@
         <v>8</v>
       </c>
       <c r="B81" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -3061,7 +3055,7 @@
         <v>4</v>
       </c>
       <c r="B84" s="12" t="s">
-        <v>234</v>
+        <v>14</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -3069,7 +3063,7 @@
         <v>4</v>
       </c>
       <c r="B85" s="12" t="s">
-        <v>235</v>
+        <v>15</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -3078,7 +3072,7 @@
         <v>8</v>
       </c>
       <c r="B86" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -3091,7 +3085,7 @@
         <v>1</v>
       </c>
       <c r="B89" s="12" t="s">
-        <v>236</v>
+        <v>16</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -3099,7 +3093,7 @@
         <v>7</v>
       </c>
       <c r="B90" s="12" t="s">
-        <v>237</v>
+        <v>17</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -3108,7 +3102,7 @@
         <v>8</v>
       </c>
       <c r="B91" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -3121,7 +3115,7 @@
         <v>1</v>
       </c>
       <c r="B94" s="12" t="s">
-        <v>238</v>
+        <v>18</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -3129,7 +3123,7 @@
         <v>6</v>
       </c>
       <c r="B95" s="12" t="s">
-        <v>239</v>
+        <v>19</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -3138,7 +3132,7 @@
         <v>7</v>
       </c>
       <c r="B96" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -3151,7 +3145,7 @@
         <v>7</v>
       </c>
       <c r="B99" s="12" t="s">
-        <v>240</v>
+        <v>20</v>
       </c>
     </row>
     <row r="100" spans="1:5" s="12" customFormat="1">
@@ -3159,7 +3153,7 @@
         <v>2</v>
       </c>
       <c r="B100" s="12" t="s">
-        <v>241</v>
+        <v>21</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -3168,7 +3162,7 @@
         <v>9</v>
       </c>
       <c r="B101" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -3181,7 +3175,7 @@
         <v>8</v>
       </c>
       <c r="B104" s="12" t="s">
-        <v>242</v>
+        <v>22</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -3190,7 +3184,7 @@
         <v>8</v>
       </c>
       <c r="B105" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
       <c r="E105">
         <f>SUM(A105,A101,A96,A91,A86,A81,A76,A71,A65,A60,A55,A49,A43,A38,A34,A30,A25,A20,A14,A8,)</f>
@@ -3207,7 +3201,7 @@
         <v>5</v>
       </c>
       <c r="B108" s="12" t="s">
-        <v>161</v>
+        <v>178</v>
       </c>
     </row>
     <row r="109" spans="1:5" s="12" customFormat="1">
@@ -3215,7 +3209,7 @@
         <v>1.5</v>
       </c>
       <c r="B109" s="12" t="s">
-        <v>243</v>
+        <v>23</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -3223,7 +3217,7 @@
         <v>1.5</v>
       </c>
       <c r="B110" s="12" t="s">
-        <v>162</v>
+        <v>179</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -3232,7 +3226,7 @@
         <v>8</v>
       </c>
       <c r="B111" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -3245,7 +3239,7 @@
         <v>5</v>
       </c>
       <c r="B114" s="13" t="s">
-        <v>251</v>
+        <v>31</v>
       </c>
     </row>
     <row r="115" spans="1:3" s="13" customFormat="1">
@@ -3253,7 +3247,7 @@
         <v>1.5</v>
       </c>
       <c r="B115" s="13" t="s">
-        <v>252</v>
+        <v>32</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -3261,7 +3255,7 @@
         <v>1.5</v>
       </c>
       <c r="B116" s="13" t="s">
-        <v>253</v>
+        <v>33</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -3270,7 +3264,7 @@
         <v>8</v>
       </c>
       <c r="B117" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -3283,7 +3277,7 @@
         <v>1</v>
       </c>
       <c r="B120" s="13" t="s">
-        <v>254</v>
+        <v>34</v>
       </c>
       <c r="C120" s="13"/>
     </row>
@@ -3292,7 +3286,7 @@
         <v>7</v>
       </c>
       <c r="B121" s="13" t="s">
-        <v>255</v>
+        <v>35</v>
       </c>
       <c r="C121" s="13"/>
     </row>
@@ -3302,7 +3296,7 @@
         <v>8</v>
       </c>
       <c r="B122" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -3315,7 +3309,7 @@
         <v>2</v>
       </c>
       <c r="B125" s="13" t="s">
-        <v>256</v>
+        <v>36</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -3323,7 +3317,7 @@
         <v>4.5</v>
       </c>
       <c r="B126" s="13" t="s">
-        <v>257</v>
+        <v>37</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -3332,7 +3326,7 @@
         <v>6.5</v>
       </c>
       <c r="B127" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
     </row>
     <row r="129" spans="1:2">
@@ -3345,7 +3339,7 @@
         <v>4</v>
       </c>
       <c r="B130" s="13" t="s">
-        <v>258</v>
+        <v>38</v>
       </c>
     </row>
     <row r="131" spans="1:2">
@@ -3353,7 +3347,7 @@
         <v>3.5</v>
       </c>
       <c r="B131" s="13" t="s">
-        <v>259</v>
+        <v>39</v>
       </c>
     </row>
     <row r="132" spans="1:2">
@@ -3362,7 +3356,7 @@
         <v>7.5</v>
       </c>
       <c r="B132" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
     </row>
     <row r="134" spans="1:2">
@@ -3375,7 +3369,7 @@
         <v>5</v>
       </c>
       <c r="B135" s="13" t="s">
-        <v>260</v>
+        <v>40</v>
       </c>
     </row>
     <row r="136" spans="1:2">
@@ -3383,7 +3377,7 @@
         <v>3</v>
       </c>
       <c r="B136" s="13" t="s">
-        <v>261</v>
+        <v>41</v>
       </c>
     </row>
     <row r="137" spans="1:2">
@@ -3392,7 +3386,7 @@
         <v>8</v>
       </c>
       <c r="B137" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
     </row>
     <row r="139" spans="1:2">
@@ -3405,7 +3399,7 @@
         <v>1</v>
       </c>
       <c r="B140" s="13" t="s">
-        <v>262</v>
+        <v>42</v>
       </c>
     </row>
     <row r="141" spans="1:2" s="13" customFormat="1">
@@ -3413,7 +3407,7 @@
         <v>0.5</v>
       </c>
       <c r="B141" s="13" t="s">
-        <v>263</v>
+        <v>43</v>
       </c>
     </row>
     <row r="142" spans="1:2">
@@ -3421,7 +3415,7 @@
         <v>6.5</v>
       </c>
       <c r="B142" s="13" t="s">
-        <v>264</v>
+        <v>44</v>
       </c>
     </row>
     <row r="143" spans="1:2">
@@ -3430,7 +3424,7 @@
         <v>8</v>
       </c>
       <c r="B143" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
     </row>
     <row r="145" spans="1:2">
@@ -3443,7 +3437,7 @@
         <v>0</v>
       </c>
       <c r="B146" s="13" t="s">
-        <v>265</v>
+        <v>45</v>
       </c>
     </row>
     <row r="147" spans="1:2">
@@ -3452,7 +3446,7 @@
         <v>0</v>
       </c>
       <c r="B147" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
     </row>
     <row r="149" spans="1:2">
@@ -3465,7 +3459,7 @@
         <v>0</v>
       </c>
       <c r="B150" s="13" t="s">
-        <v>265</v>
+        <v>45</v>
       </c>
     </row>
     <row r="151" spans="1:2">
@@ -3474,7 +3468,7 @@
         <v>0</v>
       </c>
       <c r="B151" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
     </row>
     <row r="153" spans="1:2">
@@ -3487,7 +3481,7 @@
         <v>0.5</v>
       </c>
       <c r="B154" s="13" t="s">
-        <v>211</v>
+        <v>92</v>
       </c>
     </row>
     <row r="155" spans="1:2" s="13" customFormat="1">
@@ -3495,7 +3489,7 @@
         <v>0.5</v>
       </c>
       <c r="B155" s="13" t="s">
-        <v>210</v>
+        <v>91</v>
       </c>
     </row>
     <row r="156" spans="1:2" s="13" customFormat="1">
@@ -3503,7 +3497,7 @@
         <v>2</v>
       </c>
       <c r="B156" s="13" t="s">
-        <v>209</v>
+        <v>90</v>
       </c>
     </row>
     <row r="157" spans="1:2" s="13" customFormat="1">
@@ -3511,7 +3505,7 @@
         <v>5.5</v>
       </c>
       <c r="B157" s="13" t="s">
-        <v>156</v>
+        <v>173</v>
       </c>
     </row>
     <row r="158" spans="1:2">
@@ -3519,7 +3513,7 @@
         <v>1</v>
       </c>
       <c r="B158" s="13" t="s">
-        <v>155</v>
+        <v>172</v>
       </c>
     </row>
     <row r="159" spans="1:2">
@@ -3528,7 +3522,7 @@
         <v>9.5</v>
       </c>
       <c r="B159" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
     </row>
     <row r="161" spans="1:2">
@@ -3541,7 +3535,7 @@
         <v>5</v>
       </c>
       <c r="B162" s="13" t="s">
-        <v>212</v>
+        <v>93</v>
       </c>
     </row>
     <row r="163" spans="1:2">
@@ -3549,7 +3543,7 @@
         <v>2.5</v>
       </c>
       <c r="B163" s="13" t="s">
-        <v>213</v>
+        <v>94</v>
       </c>
     </row>
     <row r="164" spans="1:2">
@@ -3558,7 +3552,7 @@
         <v>7.5</v>
       </c>
       <c r="B164" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
     </row>
     <row r="166" spans="1:2">
@@ -3571,7 +3565,7 @@
         <v>3</v>
       </c>
       <c r="B167" s="13" t="s">
-        <v>212</v>
+        <v>93</v>
       </c>
     </row>
     <row r="168" spans="1:2">
@@ -3579,7 +3573,7 @@
         <v>5</v>
       </c>
       <c r="B168" s="13" t="s">
-        <v>213</v>
+        <v>94</v>
       </c>
     </row>
     <row r="169" spans="1:2">
@@ -3588,7 +3582,7 @@
         <v>8</v>
       </c>
       <c r="B169" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
     </row>
     <row r="171" spans="1:2">
@@ -3601,7 +3595,7 @@
         <v>8.5</v>
       </c>
       <c r="B172" s="13" t="s">
-        <v>214</v>
+        <v>95</v>
       </c>
     </row>
     <row r="173" spans="1:2">
@@ -3610,7 +3604,7 @@
         <v>8.5</v>
       </c>
       <c r="B173" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
     </row>
     <row r="175" spans="1:2">
@@ -3623,7 +3617,7 @@
         <v>8.5</v>
       </c>
       <c r="B176" s="13" t="s">
-        <v>215</v>
+        <v>96</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -3632,7 +3626,7 @@
         <v>8.5</v>
       </c>
       <c r="B177" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
     </row>
     <row r="179" spans="1:4">
@@ -3645,7 +3639,7 @@
         <v>8</v>
       </c>
       <c r="B180" s="13" t="s">
-        <v>215</v>
+        <v>96</v>
       </c>
     </row>
     <row r="181" spans="1:4">
@@ -3654,7 +3648,7 @@
         <v>8</v>
       </c>
       <c r="B181" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
     </row>
     <row r="183" spans="1:4">
@@ -3667,7 +3661,7 @@
         <v>6</v>
       </c>
       <c r="B184" s="13" t="s">
-        <v>216</v>
+        <v>97</v>
       </c>
     </row>
     <row r="185" spans="1:4">
@@ -3676,7 +3670,7 @@
         <v>6</v>
       </c>
       <c r="B185" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
       <c r="D185">
         <f>A111+A117+A122+A127+A132+A137+A143+A159+A164+A169+A173+A177+A181+A185+A189+A193+A197+A201</f>
@@ -3693,7 +3687,7 @@
         <v>2.5</v>
       </c>
       <c r="B188" s="13" t="s">
-        <v>217</v>
+        <v>98</v>
       </c>
     </row>
     <row r="189" spans="1:4">
@@ -3702,7 +3696,7 @@
         <v>2.5</v>
       </c>
       <c r="B189" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
     </row>
     <row r="191" spans="1:4">
@@ -3715,7 +3709,7 @@
         <v>7.5</v>
       </c>
       <c r="B192" s="13" t="s">
-        <v>218</v>
+        <v>99</v>
       </c>
     </row>
     <row r="193" spans="1:2">
@@ -3724,7 +3718,7 @@
         <v>7.5</v>
       </c>
       <c r="B193" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
     </row>
     <row r="195" spans="1:2">
@@ -3737,7 +3731,7 @@
         <v>2.5</v>
       </c>
       <c r="B196" s="13" t="s">
-        <v>219</v>
+        <v>100</v>
       </c>
     </row>
     <row r="197" spans="1:2">
@@ -3746,7 +3740,7 @@
         <v>2.5</v>
       </c>
       <c r="B197" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
     </row>
     <row r="199" spans="1:2">
@@ -3759,7 +3753,7 @@
         <v>4</v>
       </c>
       <c r="B200" s="13" t="s">
-        <v>220</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201" spans="1:2">
@@ -3768,7 +3762,7 @@
         <v>4</v>
       </c>
       <c r="B201" s="13" t="s">
-        <v>105</v>
+        <v>122</v>
       </c>
     </row>
     <row r="203" spans="1:2">
@@ -3781,7 +3775,7 @@
         <v>4</v>
       </c>
       <c r="B204" s="18" t="s">
-        <v>115</v>
+        <v>132</v>
       </c>
     </row>
     <row r="205" spans="1:2">
@@ -3790,7 +3784,7 @@
         <v>4</v>
       </c>
       <c r="B205" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
     </row>
     <row r="206" spans="1:2" s="18" customFormat="1"/>
@@ -3804,7 +3798,7 @@
         <v>8</v>
       </c>
       <c r="B208" s="18" t="s">
-        <v>4</v>
+        <v>186</v>
       </c>
     </row>
     <row r="209" spans="1:2" s="18" customFormat="1">
@@ -3813,7 +3807,7 @@
         <v>8</v>
       </c>
       <c r="B209" s="18" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
     </row>
     <row r="210" spans="1:2" s="18" customFormat="1"/>
@@ -3827,7 +3821,7 @@
         <v>2.5</v>
       </c>
       <c r="B212" s="18" t="s">
-        <v>5</v>
+        <v>187</v>
       </c>
     </row>
     <row r="213" spans="1:2" s="18" customFormat="1">
@@ -3836,7 +3830,7 @@
         <v>2.5</v>
       </c>
       <c r="B213" s="18" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
     </row>
     <row r="214" spans="1:2" s="18" customFormat="1"/>
@@ -3850,7 +3844,7 @@
         <v>4</v>
       </c>
       <c r="B216" s="18" t="s">
-        <v>5</v>
+        <v>187</v>
       </c>
     </row>
     <row r="217" spans="1:2" s="18" customFormat="1">
@@ -3859,7 +3853,7 @@
         <v>4</v>
       </c>
       <c r="B217" s="18" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
     </row>
     <row r="218" spans="1:2" s="18" customFormat="1"/>
@@ -3873,7 +3867,7 @@
         <v>3</v>
       </c>
       <c r="B220" s="18" t="s">
-        <v>5</v>
+        <v>187</v>
       </c>
     </row>
     <row r="221" spans="1:2" s="18" customFormat="1">
@@ -3881,7 +3875,7 @@
         <v>1</v>
       </c>
       <c r="B221" s="18" t="s">
-        <v>9</v>
+        <v>191</v>
       </c>
     </row>
     <row r="222" spans="1:2" s="18" customFormat="1">
@@ -3890,7 +3884,7 @@
         <v>4</v>
       </c>
       <c r="B222" s="18" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
     </row>
     <row r="223" spans="1:2" s="18" customFormat="1"/>
@@ -3905,7 +3899,7 @@
         <v>2</v>
       </c>
       <c r="B225" s="18" t="s">
-        <v>74</v>
+        <v>256</v>
       </c>
     </row>
     <row r="226" spans="1:7" s="18" customFormat="1">
@@ -3913,7 +3907,7 @@
         <v>5</v>
       </c>
       <c r="B226" s="18" t="s">
-        <v>75</v>
+        <v>257</v>
       </c>
     </row>
     <row r="227" spans="1:7" s="18" customFormat="1">
@@ -3922,7 +3916,7 @@
         <v>7</v>
       </c>
       <c r="B227" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
     </row>
     <row r="228" spans="1:7" s="18" customFormat="1">
@@ -3940,7 +3934,7 @@
         <v>2.5</v>
       </c>
       <c r="B230" s="18" t="s">
-        <v>75</v>
+        <v>257</v>
       </c>
     </row>
     <row r="231" spans="1:7" s="18" customFormat="1">
@@ -3949,7 +3943,7 @@
         <v>2.5</v>
       </c>
       <c r="B231" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
     </row>
     <row r="232" spans="1:7" s="18" customFormat="1">
@@ -3966,7 +3960,7 @@
         <v>1.5</v>
       </c>
       <c r="B234" s="18" t="s">
-        <v>3</v>
+        <v>185</v>
       </c>
     </row>
     <row r="235" spans="1:7" s="18" customFormat="1">
@@ -3974,7 +3968,7 @@
         <v>2.5</v>
       </c>
       <c r="B235" s="18" t="s">
-        <v>76</v>
+        <v>258</v>
       </c>
     </row>
     <row r="236" spans="1:7" s="18" customFormat="1">
@@ -3983,7 +3977,7 @@
         <v>4</v>
       </c>
       <c r="B236" s="18" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
     </row>
     <row r="237" spans="1:7" s="18" customFormat="1"/>
@@ -3997,7 +3991,7 @@
         <v>7.5</v>
       </c>
       <c r="B239" s="18" t="s">
-        <v>77</v>
+        <v>259</v>
       </c>
     </row>
     <row r="240" spans="1:7" s="18" customFormat="1">
@@ -4006,10 +4000,10 @@
         <v>7.5</v>
       </c>
       <c r="B240" s="18" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
       <c r="F240" s="18" t="s">
-        <v>15</v>
+        <v>197</v>
       </c>
       <c r="G240" s="18">
         <v>4</v>
@@ -4017,10 +4011,10 @@
     </row>
     <row r="241" spans="1:7" s="18" customFormat="1">
       <c r="F241" s="18" t="s">
-        <v>16</v>
+        <v>198</v>
       </c>
       <c r="G241" s="18" t="s">
-        <v>18</v>
+        <v>200</v>
       </c>
     </row>
     <row r="242" spans="1:7" s="18" customFormat="1">
@@ -4028,7 +4022,7 @@
         <v>38611</v>
       </c>
       <c r="F242" s="18" t="s">
-        <v>17</v>
+        <v>199</v>
       </c>
     </row>
     <row r="243" spans="1:7" s="18" customFormat="1">
@@ -4036,7 +4030,7 @@
         <v>1</v>
       </c>
       <c r="B243" s="18" t="s">
-        <v>77</v>
+        <v>259</v>
       </c>
     </row>
     <row r="244" spans="1:7" s="18" customFormat="1">
@@ -4044,7 +4038,7 @@
         <v>2</v>
       </c>
       <c r="B244" s="18" t="s">
-        <v>78</v>
+        <v>260</v>
       </c>
     </row>
     <row r="245" spans="1:7" s="18" customFormat="1">
@@ -4053,7 +4047,7 @@
         <v>3</v>
       </c>
       <c r="B245" s="18" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
     </row>
     <row r="246" spans="1:7">
@@ -4071,7 +4065,7 @@
         <v>3</v>
       </c>
       <c r="B248" s="18" t="s">
-        <v>77</v>
+        <v>259</v>
       </c>
     </row>
     <row r="249" spans="1:7">
@@ -4080,7 +4074,7 @@
         <v>3</v>
       </c>
       <c r="B249" s="18" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
     </row>
     <row r="250" spans="1:7">
@@ -4098,7 +4092,7 @@
         <v>0.5</v>
       </c>
       <c r="B252" s="18" t="s">
-        <v>82</v>
+        <v>264</v>
       </c>
     </row>
     <row r="253" spans="1:7">
@@ -4106,7 +4100,7 @@
         <v>1</v>
       </c>
       <c r="B253" s="18" t="s">
-        <v>79</v>
+        <v>261</v>
       </c>
     </row>
     <row r="254" spans="1:7">
@@ -4114,15 +4108,15 @@
         <v>2</v>
       </c>
       <c r="B254" s="18" t="s">
-        <v>80</v>
+        <v>262</v>
       </c>
     </row>
     <row r="255" spans="1:7">
-      <c r="A255" s="28">
+      <c r="A255" s="21">
         <v>3</v>
       </c>
-      <c r="B255" s="28" t="s">
-        <v>81</v>
+      <c r="B255" s="21" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="256" spans="1:7">
@@ -4130,7 +4124,7 @@
         <v>2.5</v>
       </c>
       <c r="B256" s="18" t="s">
-        <v>85</v>
+        <v>102</v>
       </c>
     </row>
     <row r="257" spans="1:2">
@@ -4139,7 +4133,7 @@
         <v>9</v>
       </c>
       <c r="B257" s="18" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
     </row>
     <row r="258" spans="1:2">
@@ -4157,7 +4151,7 @@
         <v>1</v>
       </c>
       <c r="B260" s="18" t="s">
-        <v>83</v>
+        <v>265</v>
       </c>
     </row>
     <row r="261" spans="1:2">
@@ -4165,7 +4159,7 @@
         <v>2</v>
       </c>
       <c r="B261" s="18" t="s">
-        <v>84</v>
+        <v>101</v>
       </c>
     </row>
     <row r="262" spans="1:2">
@@ -4174,7 +4168,7 @@
         <v>3</v>
       </c>
       <c r="B262" s="18" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
     </row>
     <row r="263" spans="1:2">
@@ -4192,7 +4186,7 @@
         <v>4</v>
       </c>
       <c r="B265" s="18" t="s">
-        <v>86</v>
+        <v>103</v>
       </c>
     </row>
     <row r="266" spans="1:2">
@@ -4201,7 +4195,7 @@
         <v>4</v>
       </c>
       <c r="B266" s="18" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
     </row>
     <row r="267" spans="1:2" s="18" customFormat="1"/>
@@ -4216,7 +4210,7 @@
         <v>3.5</v>
       </c>
       <c r="B269" s="18" t="s">
-        <v>87</v>
+        <v>104</v>
       </c>
     </row>
     <row r="270" spans="1:2">
@@ -4225,7 +4219,7 @@
         <v>3.5</v>
       </c>
       <c r="B270" s="18" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
     </row>
     <row r="271" spans="1:2">
@@ -4243,7 +4237,7 @@
         <v>2</v>
       </c>
       <c r="B273" s="18" t="s">
-        <v>12</v>
+        <v>194</v>
       </c>
     </row>
     <row r="274" spans="1:2">
@@ -4251,7 +4245,7 @@
         <v>3</v>
       </c>
       <c r="B274" s="18" t="s">
-        <v>1</v>
+        <v>183</v>
       </c>
     </row>
     <row r="275" spans="1:2">
@@ -4260,7 +4254,7 @@
         <v>5</v>
       </c>
       <c r="B275" s="18" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
     </row>
     <row r="276" spans="1:2" s="18" customFormat="1"/>
@@ -4269,12 +4263,12 @@
         <v>38624</v>
       </c>
     </row>
-    <row r="278" spans="1:2" s="27" customFormat="1">
+    <row r="278" spans="1:2" s="20" customFormat="1">
       <c r="A278" s="18">
         <v>7</v>
       </c>
       <c r="B278" s="18" t="s">
-        <v>2</v>
+        <v>184</v>
       </c>
     </row>
     <row r="279" spans="1:2">
@@ -4283,7 +4277,7 @@
         <v>7</v>
       </c>
       <c r="B279" s="18" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
     </row>
     <row r="280" spans="1:2">
@@ -4301,7 +4295,7 @@
         <v>937</v>
       </c>
       <c r="B282" s="18" t="s">
-        <v>116</v>
+        <v>133</v>
       </c>
     </row>
     <row r="283" spans="1:2">
@@ -4309,16 +4303,16 @@
         <v>943.5</v>
       </c>
       <c r="B283" s="18" t="s">
-        <v>117</v>
+        <v>134</v>
       </c>
     </row>
     <row r="284" spans="1:2">
       <c r="A284" s="18">
-        <f t="shared" ref="A284:A315" si="3">SUM(A282:A283)</f>
+        <f t="shared" ref="A284" si="3">SUM(A282:A283)</f>
         <v>1880.5</v>
       </c>
       <c r="B284" s="18" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
     </row>
     <row r="285" spans="1:2">
@@ -4336,7 +4330,7 @@
         <v>950</v>
       </c>
       <c r="B287" s="18" t="s">
-        <v>118</v>
+        <v>135</v>
       </c>
     </row>
     <row r="288" spans="1:2">
@@ -4344,16 +4338,16 @@
         <v>956.5</v>
       </c>
       <c r="B288" s="18" t="s">
-        <v>119</v>
+        <v>136</v>
       </c>
     </row>
     <row r="289" spans="1:6">
       <c r="A289" s="18">
-        <f t="shared" ref="A289:A320" si="4">SUM(A287:A288)</f>
+        <f t="shared" ref="A289" si="4">SUM(A287:A288)</f>
         <v>1906.5</v>
       </c>
       <c r="B289" s="18" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
     </row>
     <row r="290" spans="1:6">
@@ -4371,7 +4365,7 @@
         <v>950</v>
       </c>
       <c r="B292" s="18" t="s">
-        <v>118</v>
+        <v>135</v>
       </c>
     </row>
     <row r="293" spans="1:6">
@@ -4379,7 +4373,7 @@
         <v>956.5</v>
       </c>
       <c r="B293" s="18" t="s">
-        <v>119</v>
+        <v>136</v>
       </c>
     </row>
     <row r="294" spans="1:6">
@@ -4388,7 +4382,7 @@
         <v>1906.5</v>
       </c>
       <c r="B294" s="18" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
     </row>
     <row r="295" spans="1:6">
@@ -4406,7 +4400,7 @@
         <v>963</v>
       </c>
       <c r="B297" s="18" t="s">
-        <v>120</v>
+        <v>137</v>
       </c>
     </row>
     <row r="298" spans="1:6">
@@ -4414,10 +4408,10 @@
         <v>969.5</v>
       </c>
       <c r="B298" s="18" t="s">
-        <v>121</v>
+        <v>138</v>
       </c>
       <c r="E298" s="18" t="s">
-        <v>14</v>
+        <v>196</v>
       </c>
       <c r="F298">
         <f>A273+A253+A244+A234+A252</f>
@@ -4430,10 +4424,10 @@
         <v>1932.5</v>
       </c>
       <c r="B299" s="18" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
       <c r="E299" s="18" t="s">
-        <v>11</v>
+        <v>193</v>
       </c>
       <c r="F299">
         <f>A278+A274+A256+A248+A243+A239+A235+A225+A220+A216+A212+A208</f>
@@ -4459,7 +4453,7 @@
         <v>963</v>
       </c>
       <c r="B302" s="18" t="s">
-        <v>120</v>
+        <v>137</v>
       </c>
       <c r="E302">
         <f>A279+A275+A270+A266+A262+A257+A249+A245+A240+A236+A231+A227+A222+A217+A213+A209+A205</f>
@@ -4471,7 +4465,7 @@
         <v>969.5</v>
       </c>
       <c r="B303" s="18" t="s">
-        <v>121</v>
+        <v>138</v>
       </c>
     </row>
     <row r="304" spans="1:6">
@@ -4480,7 +4474,7 @@
         <v>1932.5</v>
       </c>
       <c r="B304" s="18" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
     </row>
     <row r="305" spans="1:2">
@@ -4498,7 +4492,7 @@
         <v>976</v>
       </c>
       <c r="B307" s="18" t="s">
-        <v>122</v>
+        <v>139</v>
       </c>
     </row>
     <row r="308" spans="1:2">
@@ -4506,7 +4500,7 @@
         <v>982.5</v>
       </c>
       <c r="B308" s="18" t="s">
-        <v>123</v>
+        <v>140</v>
       </c>
     </row>
     <row r="309" spans="1:2">
@@ -4515,7 +4509,7 @@
         <v>1958.5</v>
       </c>
       <c r="B309" s="18" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
     </row>
     <row r="310" spans="1:2">
@@ -4533,7 +4527,7 @@
         <v>976</v>
       </c>
       <c r="B312" s="18" t="s">
-        <v>122</v>
+        <v>139</v>
       </c>
     </row>
     <row r="313" spans="1:2">
@@ -4541,7 +4535,7 @@
         <v>982.5</v>
       </c>
       <c r="B313" s="18" t="s">
-        <v>123</v>
+        <v>140</v>
       </c>
     </row>
     <row r="314" spans="1:2">
@@ -4550,7 +4544,7 @@
         <v>1958.5</v>
       </c>
       <c r="B314" s="18" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
     </row>
     <row r="315" spans="1:2">
@@ -4568,7 +4562,7 @@
         <v>989</v>
       </c>
       <c r="B317" s="18" t="s">
-        <v>124</v>
+        <v>141</v>
       </c>
     </row>
     <row r="318" spans="1:2">
@@ -4576,7 +4570,7 @@
         <v>995.5</v>
       </c>
       <c r="B318" s="18" t="s">
-        <v>125</v>
+        <v>142</v>
       </c>
     </row>
     <row r="319" spans="1:2">
@@ -4585,7 +4579,7 @@
         <v>1984.5</v>
       </c>
       <c r="B319" s="18" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
     </row>
     <row r="320" spans="1:2">
@@ -4603,7 +4597,7 @@
         <v>989</v>
       </c>
       <c r="B322" s="18" t="s">
-        <v>124</v>
+        <v>141</v>
       </c>
     </row>
     <row r="323" spans="1:2">
@@ -4611,7 +4605,7 @@
         <v>995.5</v>
       </c>
       <c r="B323" s="18" t="s">
-        <v>125</v>
+        <v>142</v>
       </c>
     </row>
     <row r="324" spans="1:2">
@@ -4620,7 +4614,7 @@
         <v>1984.5</v>
       </c>
       <c r="B324" s="18" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
     </row>
     <row r="325" spans="1:2">
@@ -4638,7 +4632,7 @@
         <v>1002</v>
       </c>
       <c r="B327" s="18" t="s">
-        <v>126</v>
+        <v>143</v>
       </c>
     </row>
     <row r="328" spans="1:2">
@@ -4646,7 +4640,7 @@
         <v>1008.5</v>
       </c>
       <c r="B328" s="18" t="s">
-        <v>127</v>
+        <v>144</v>
       </c>
     </row>
     <row r="329" spans="1:2">
@@ -4655,7 +4649,7 @@
         <v>2010.5</v>
       </c>
       <c r="B329" s="18" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
     </row>
     <row r="330" spans="1:2">
@@ -4673,7 +4667,7 @@
         <v>1002</v>
       </c>
       <c r="B332" s="18" t="s">
-        <v>126</v>
+        <v>143</v>
       </c>
     </row>
     <row r="333" spans="1:2">
@@ -4681,7 +4675,7 @@
         <v>1008.5</v>
       </c>
       <c r="B333" s="18" t="s">
-        <v>127</v>
+        <v>144</v>
       </c>
     </row>
     <row r="334" spans="1:2">
@@ -4690,7 +4684,7 @@
         <v>2010.5</v>
       </c>
       <c r="B334" s="18" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
     </row>
     <row r="335" spans="1:2">
@@ -4708,7 +4702,7 @@
         <v>1015</v>
       </c>
       <c r="B337" s="18" t="s">
-        <v>128</v>
+        <v>145</v>
       </c>
     </row>
     <row r="338" spans="1:2">
@@ -4716,7 +4710,7 @@
         <v>1021.5</v>
       </c>
       <c r="B338" s="18" t="s">
-        <v>129</v>
+        <v>146</v>
       </c>
     </row>
     <row r="339" spans="1:2">
@@ -4725,7 +4719,7 @@
         <v>2036.5</v>
       </c>
       <c r="B339" s="18" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
     </row>
     <row r="340" spans="1:2">
@@ -4743,7 +4737,7 @@
         <v>1015</v>
       </c>
       <c r="B342" s="18" t="s">
-        <v>128</v>
+        <v>145</v>
       </c>
     </row>
     <row r="343" spans="1:2">
@@ -4751,7 +4745,7 @@
         <v>1021.5</v>
       </c>
       <c r="B343" s="18" t="s">
-        <v>129</v>
+        <v>146</v>
       </c>
     </row>
     <row r="344" spans="1:2">
@@ -4760,7 +4754,7 @@
         <v>2036.5</v>
       </c>
       <c r="B344" s="18" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
     </row>
     <row r="345" spans="1:2">
@@ -4778,7 +4772,7 @@
         <v>1028</v>
       </c>
       <c r="B347" s="18" t="s">
-        <v>130</v>
+        <v>147</v>
       </c>
     </row>
     <row r="348" spans="1:2">
@@ -4786,7 +4780,7 @@
         <v>1034.5</v>
       </c>
       <c r="B348" s="18" t="s">
-        <v>131</v>
+        <v>148</v>
       </c>
     </row>
     <row r="349" spans="1:2">
@@ -4795,7 +4789,7 @@
         <v>2062.5</v>
       </c>
       <c r="B349" s="18" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
     </row>
     <row r="350" spans="1:2">
@@ -4813,7 +4807,7 @@
         <v>1028</v>
       </c>
       <c r="B352" s="18" t="s">
-        <v>130</v>
+        <v>147</v>
       </c>
     </row>
     <row r="353" spans="1:2">
@@ -4821,7 +4815,7 @@
         <v>1034.5</v>
       </c>
       <c r="B353" s="18" t="s">
-        <v>131</v>
+        <v>148</v>
       </c>
     </row>
     <row r="354" spans="1:2">
@@ -4830,7 +4824,7 @@
         <v>2062.5</v>
       </c>
       <c r="B354" s="18" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
     </row>
     <row r="355" spans="1:2">
@@ -4848,7 +4842,7 @@
         <v>1041</v>
       </c>
       <c r="B357" s="18" t="s">
-        <v>132</v>
+        <v>149</v>
       </c>
     </row>
     <row r="358" spans="1:2">
@@ -4856,7 +4850,7 @@
         <v>1047.5</v>
       </c>
       <c r="B358" s="18" t="s">
-        <v>133</v>
+        <v>150</v>
       </c>
     </row>
     <row r="359" spans="1:2">
@@ -4865,7 +4859,7 @@
         <v>2088.5</v>
       </c>
       <c r="B359" s="18" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
     </row>
     <row r="360" spans="1:2">
@@ -4883,7 +4877,7 @@
         <v>1041</v>
       </c>
       <c r="B362" s="18" t="s">
-        <v>132</v>
+        <v>149</v>
       </c>
     </row>
     <row r="363" spans="1:2">
@@ -4891,7 +4885,7 @@
         <v>1047.5</v>
       </c>
       <c r="B363" s="18" t="s">
-        <v>133</v>
+        <v>150</v>
       </c>
     </row>
     <row r="364" spans="1:2">
@@ -4900,7 +4894,7 @@
         <v>2088.5</v>
       </c>
       <c r="B364" s="18" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
     </row>
     <row r="365" spans="1:2">
@@ -4918,7 +4912,7 @@
         <v>1054</v>
       </c>
       <c r="B367" s="18" t="s">
-        <v>134</v>
+        <v>151</v>
       </c>
     </row>
     <row r="368" spans="1:2">
@@ -4926,7 +4920,7 @@
         <v>1060.5</v>
       </c>
       <c r="B368" s="18" t="s">
-        <v>135</v>
+        <v>152</v>
       </c>
     </row>
     <row r="369" spans="1:2">
@@ -4935,7 +4929,7 @@
         <v>2114.5</v>
       </c>
       <c r="B369" s="18" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
     </row>
     <row r="370" spans="1:2">
@@ -4953,7 +4947,7 @@
         <v>1054</v>
       </c>
       <c r="B372" s="18" t="s">
-        <v>134</v>
+        <v>151</v>
       </c>
     </row>
     <row r="373" spans="1:2">
@@ -4961,7 +4955,7 @@
         <v>1060.5</v>
       </c>
       <c r="B373" s="18" t="s">
-        <v>135</v>
+        <v>152</v>
       </c>
     </row>
     <row r="374" spans="1:2">
@@ -4970,7 +4964,7 @@
         <v>2114.5</v>
       </c>
       <c r="B374" s="18" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
     </row>
     <row r="375" spans="1:2">
@@ -4988,7 +4982,7 @@
         <v>1067</v>
       </c>
       <c r="B377" s="18" t="s">
-        <v>136</v>
+        <v>153</v>
       </c>
     </row>
     <row r="378" spans="1:2">
@@ -4996,7 +4990,7 @@
         <v>1073.5</v>
       </c>
       <c r="B378" s="18" t="s">
-        <v>137</v>
+        <v>154</v>
       </c>
     </row>
     <row r="379" spans="1:2">
@@ -5005,7 +4999,7 @@
         <v>2140.5</v>
       </c>
       <c r="B379" s="18" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
     </row>
     <row r="380" spans="1:2">
@@ -5023,7 +5017,7 @@
         <v>1067</v>
       </c>
       <c r="B382" s="18" t="s">
-        <v>136</v>
+        <v>153</v>
       </c>
     </row>
     <row r="383" spans="1:2">
@@ -5031,7 +5025,7 @@
         <v>1073.5</v>
       </c>
       <c r="B383" s="18" t="s">
-        <v>137</v>
+        <v>154</v>
       </c>
     </row>
     <row r="384" spans="1:2">
@@ -5040,7 +5034,7 @@
         <v>2140.5</v>
       </c>
       <c r="B384" s="18" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
     </row>
     <row r="385" spans="1:2">
@@ -5058,7 +5052,7 @@
         <v>1080</v>
       </c>
       <c r="B387" s="18" t="s">
-        <v>138</v>
+        <v>155</v>
       </c>
     </row>
     <row r="388" spans="1:2">
@@ -5066,7 +5060,7 @@
         <v>1086.5</v>
       </c>
       <c r="B388" s="18" t="s">
-        <v>139</v>
+        <v>156</v>
       </c>
     </row>
     <row r="389" spans="1:2">
@@ -5075,7 +5069,7 @@
         <v>2166.5</v>
       </c>
       <c r="B389" s="18" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
     </row>
     <row r="390" spans="1:2">
@@ -5093,7 +5087,7 @@
         <v>1080</v>
       </c>
       <c r="B392" s="18" t="s">
-        <v>138</v>
+        <v>155</v>
       </c>
     </row>
     <row r="393" spans="1:2">
@@ -5101,7 +5095,7 @@
         <v>1086.5</v>
       </c>
       <c r="B393" s="18" t="s">
-        <v>139</v>
+        <v>156</v>
       </c>
     </row>
     <row r="394" spans="1:2">
@@ -5110,7 +5104,7 @@
         <v>2166.5</v>
       </c>
       <c r="B394" s="18" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
     </row>
     <row r="395" spans="1:2">
@@ -5128,7 +5122,7 @@
         <v>1093</v>
       </c>
       <c r="B397" s="18" t="s">
-        <v>140</v>
+        <v>157</v>
       </c>
     </row>
     <row r="398" spans="1:2">
@@ -5136,7 +5130,7 @@
         <v>1099.5</v>
       </c>
       <c r="B398" s="18" t="s">
-        <v>141</v>
+        <v>158</v>
       </c>
     </row>
     <row r="399" spans="1:2">
@@ -5145,7 +5139,7 @@
         <v>2192.5</v>
       </c>
       <c r="B399" s="18" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
     </row>
     <row r="400" spans="1:2">
@@ -5163,7 +5157,7 @@
         <v>1093</v>
       </c>
       <c r="B402" s="18" t="s">
-        <v>140</v>
+        <v>157</v>
       </c>
     </row>
     <row r="403" spans="1:2">
@@ -5171,7 +5165,7 @@
         <v>1099.5</v>
       </c>
       <c r="B403" s="18" t="s">
-        <v>141</v>
+        <v>158</v>
       </c>
     </row>
     <row r="404" spans="1:2">
@@ -5180,7 +5174,7 @@
         <v>2192.5</v>
       </c>
       <c r="B404" s="18" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
     </row>
     <row r="405" spans="1:2">
@@ -5198,7 +5192,7 @@
         <v>1106</v>
       </c>
       <c r="B407" s="18" t="s">
-        <v>142</v>
+        <v>159</v>
       </c>
     </row>
     <row r="408" spans="1:2">
@@ -5206,7 +5200,7 @@
         <v>1112.5</v>
       </c>
       <c r="B408" s="18" t="s">
-        <v>143</v>
+        <v>160</v>
       </c>
     </row>
     <row r="409" spans="1:2">
@@ -5215,7 +5209,7 @@
         <v>2218.5</v>
       </c>
       <c r="B409" s="18" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
     </row>
     <row r="410" spans="1:2">
@@ -5233,7 +5227,7 @@
         <v>1106</v>
       </c>
       <c r="B412" s="18" t="s">
-        <v>142</v>
+        <v>159</v>
       </c>
     </row>
     <row r="413" spans="1:2">
@@ -5241,7 +5235,7 @@
         <v>1112.5</v>
       </c>
       <c r="B413" s="18" t="s">
-        <v>143</v>
+        <v>160</v>
       </c>
     </row>
     <row r="414" spans="1:2">
@@ -5250,7 +5244,7 @@
         <v>2218.5</v>
       </c>
       <c r="B414" s="18" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
     </row>
     <row r="415" spans="1:2">
@@ -5268,7 +5262,7 @@
         <v>1119</v>
       </c>
       <c r="B417" s="18" t="s">
-        <v>144</v>
+        <v>161</v>
       </c>
     </row>
     <row r="418" spans="1:2">
@@ -5276,7 +5270,7 @@
         <v>1125.5</v>
       </c>
       <c r="B418" s="18" t="s">
-        <v>145</v>
+        <v>162</v>
       </c>
     </row>
     <row r="419" spans="1:2">
@@ -5285,7 +5279,7 @@
         <v>2244.5</v>
       </c>
       <c r="B419" s="18" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
     </row>
     <row r="420" spans="1:2">
@@ -5303,7 +5297,7 @@
         <v>1119</v>
       </c>
       <c r="B422" s="18" t="s">
-        <v>144</v>
+        <v>161</v>
       </c>
     </row>
     <row r="423" spans="1:2">
@@ -5311,7 +5305,7 @@
         <v>1125.5</v>
       </c>
       <c r="B423" s="18" t="s">
-        <v>145</v>
+        <v>162</v>
       </c>
     </row>
     <row r="424" spans="1:2">
@@ -5320,7 +5314,7 @@
         <v>2244.5</v>
       </c>
       <c r="B424" s="18" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
     </row>
     <row r="425" spans="1:2">
@@ -5338,7 +5332,7 @@
         <v>1132</v>
       </c>
       <c r="B427" s="18" t="s">
-        <v>146</v>
+        <v>163</v>
       </c>
     </row>
     <row r="428" spans="1:2">
@@ -5346,7 +5340,7 @@
         <v>1138.5</v>
       </c>
       <c r="B428" s="18" t="s">
-        <v>147</v>
+        <v>164</v>
       </c>
     </row>
     <row r="429" spans="1:2">
@@ -5355,7 +5349,7 @@
         <v>2270.5</v>
       </c>
       <c r="B429" s="18" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
     </row>
     <row r="430" spans="1:2">
@@ -5373,7 +5367,7 @@
         <v>1132</v>
       </c>
       <c r="B432" s="18" t="s">
-        <v>146</v>
+        <v>163</v>
       </c>
     </row>
     <row r="433" spans="1:2">
@@ -5381,7 +5375,7 @@
         <v>1138.5</v>
       </c>
       <c r="B433" s="18" t="s">
-        <v>147</v>
+        <v>164</v>
       </c>
     </row>
     <row r="434" spans="1:2">
@@ -5390,7 +5384,7 @@
         <v>2270.5</v>
       </c>
       <c r="B434" s="18" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
     </row>
     <row r="435" spans="1:2">
@@ -5408,7 +5402,7 @@
         <v>1145</v>
       </c>
       <c r="B437" s="18" t="s">
-        <v>148</v>
+        <v>165</v>
       </c>
     </row>
     <row r="438" spans="1:2">
@@ -5416,7 +5410,7 @@
         <v>1151.5</v>
       </c>
       <c r="B438" s="18" t="s">
-        <v>149</v>
+        <v>166</v>
       </c>
     </row>
     <row r="439" spans="1:2">
@@ -5425,7 +5419,7 @@
         <v>2296.5</v>
       </c>
       <c r="B439" s="18" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
     </row>
     <row r="440" spans="1:2">
@@ -5443,7 +5437,7 @@
         <v>1145</v>
       </c>
       <c r="B442" s="18" t="s">
-        <v>148</v>
+        <v>165</v>
       </c>
     </row>
     <row r="443" spans="1:2">
@@ -5451,7 +5445,7 @@
         <v>1151.5</v>
       </c>
       <c r="B443" s="18" t="s">
-        <v>149</v>
+        <v>166</v>
       </c>
     </row>
     <row r="444" spans="1:2">
@@ -5460,7 +5454,7 @@
         <v>2296.5</v>
       </c>
       <c r="B444" s="18" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
     </row>
     <row r="445" spans="1:2">
@@ -5478,7 +5472,7 @@
         <v>1158</v>
       </c>
       <c r="B447" s="18" t="s">
-        <v>150</v>
+        <v>167</v>
       </c>
     </row>
     <row r="448" spans="1:2">
@@ -5486,7 +5480,7 @@
         <v>1164.5</v>
       </c>
       <c r="B448" s="18" t="s">
-        <v>151</v>
+        <v>168</v>
       </c>
     </row>
     <row r="449" spans="1:2">
@@ -5495,7 +5489,7 @@
         <v>2322.5</v>
       </c>
       <c r="B449" s="18" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
     </row>
     <row r="450" spans="1:2">
@@ -5513,7 +5507,7 @@
         <v>1158</v>
       </c>
       <c r="B452" s="18" t="s">
-        <v>150</v>
+        <v>167</v>
       </c>
     </row>
     <row r="453" spans="1:2">
@@ -5521,7 +5515,7 @@
         <v>1164.5</v>
       </c>
       <c r="B453" s="18" t="s">
-        <v>151</v>
+        <v>168</v>
       </c>
     </row>
     <row r="454" spans="1:2">
@@ -5530,7 +5524,7 @@
         <v>2322.5</v>
       </c>
       <c r="B454" s="18" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
     </row>
     <row r="455" spans="1:2">
@@ -5548,7 +5542,7 @@
         <v>1171</v>
       </c>
       <c r="B457" s="18" t="s">
-        <v>152</v>
+        <v>169</v>
       </c>
     </row>
     <row r="458" spans="1:2">
@@ -5556,7 +5550,7 @@
         <v>1177.5</v>
       </c>
       <c r="B458" s="18" t="s">
-        <v>153</v>
+        <v>170</v>
       </c>
     </row>
     <row r="459" spans="1:2">
@@ -5565,7 +5559,7 @@
         <v>2348.5</v>
       </c>
       <c r="B459" s="18" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
     </row>
     <row r="460" spans="1:2">
@@ -5583,7 +5577,7 @@
         <v>1171</v>
       </c>
       <c r="B462" s="18" t="s">
-        <v>152</v>
+        <v>169</v>
       </c>
     </row>
     <row r="463" spans="1:2">
@@ -5591,7 +5585,7 @@
         <v>1177.5</v>
       </c>
       <c r="B463" s="18" t="s">
-        <v>153</v>
+        <v>170</v>
       </c>
     </row>
     <row r="464" spans="1:2">
@@ -5600,7 +5594,7 @@
         <v>2348.5</v>
       </c>
       <c r="B464" s="18" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
     </row>
     <row r="465" spans="1:2">
@@ -5618,7 +5612,7 @@
         <v>1184</v>
       </c>
       <c r="B467" s="18" t="s">
-        <v>154</v>
+        <v>171</v>
       </c>
     </row>
     <row r="468" spans="1:2">
@@ -5626,7 +5620,7 @@
         <v>1190.5</v>
       </c>
       <c r="B468" s="18" t="s">
-        <v>19</v>
+        <v>201</v>
       </c>
     </row>
     <row r="469" spans="1:2">
@@ -5635,7 +5629,7 @@
         <v>2374.5</v>
       </c>
       <c r="B469" s="18" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
     </row>
     <row r="470" spans="1:2">
@@ -5653,7 +5647,7 @@
         <v>1184</v>
       </c>
       <c r="B472" s="18" t="s">
-        <v>154</v>
+        <v>171</v>
       </c>
     </row>
     <row r="473" spans="1:2">
@@ -5661,7 +5655,7 @@
         <v>1190.5</v>
       </c>
       <c r="B473" s="18" t="s">
-        <v>19</v>
+        <v>201</v>
       </c>
     </row>
     <row r="474" spans="1:2">
@@ -5670,7 +5664,7 @@
         <v>2374.5</v>
       </c>
       <c r="B474" s="18" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
     </row>
     <row r="475" spans="1:2">
@@ -5688,7 +5682,7 @@
         <v>1197</v>
       </c>
       <c r="B477" s="18" t="s">
-        <v>20</v>
+        <v>202</v>
       </c>
     </row>
     <row r="478" spans="1:2">
@@ -5696,7 +5690,7 @@
         <v>1203.5</v>
       </c>
       <c r="B478" s="18" t="s">
-        <v>21</v>
+        <v>203</v>
       </c>
     </row>
     <row r="479" spans="1:2">
@@ -5705,7 +5699,7 @@
         <v>2400.5</v>
       </c>
       <c r="B479" s="18" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
     </row>
     <row r="480" spans="1:2">
@@ -5723,7 +5717,7 @@
         <v>1197</v>
       </c>
       <c r="B482" s="18" t="s">
-        <v>20</v>
+        <v>202</v>
       </c>
     </row>
     <row r="483" spans="1:2">
@@ -5731,7 +5725,7 @@
         <v>1203.5</v>
       </c>
       <c r="B483" s="18" t="s">
-        <v>21</v>
+        <v>203</v>
       </c>
     </row>
     <row r="484" spans="1:2">
@@ -5740,7 +5734,7 @@
         <v>2400.5</v>
       </c>
       <c r="B484" s="18" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
     </row>
     <row r="485" spans="1:2">
@@ -5758,7 +5752,7 @@
         <v>1210</v>
       </c>
       <c r="B487" s="18" t="s">
-        <v>22</v>
+        <v>204</v>
       </c>
     </row>
     <row r="488" spans="1:2">
@@ -5766,7 +5760,7 @@
         <v>1216.5</v>
       </c>
       <c r="B488" s="18" t="s">
-        <v>23</v>
+        <v>205</v>
       </c>
     </row>
     <row r="489" spans="1:2">
@@ -5775,7 +5769,7 @@
         <v>2426.5</v>
       </c>
       <c r="B489" s="18" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
     </row>
     <row r="490" spans="1:2">
@@ -5793,7 +5787,7 @@
         <v>1210</v>
       </c>
       <c r="B492" s="18" t="s">
-        <v>22</v>
+        <v>204</v>
       </c>
     </row>
     <row r="493" spans="1:2">
@@ -5801,7 +5795,7 @@
         <v>1216.5</v>
       </c>
       <c r="B493" s="18" t="s">
-        <v>23</v>
+        <v>205</v>
       </c>
     </row>
     <row r="494" spans="1:2">
@@ -5810,7 +5804,7 @@
         <v>2426.5</v>
       </c>
       <c r="B494" s="18" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
     </row>
     <row r="495" spans="1:2">
@@ -5828,7 +5822,7 @@
         <v>1223</v>
       </c>
       <c r="B497" s="18" t="s">
-        <v>24</v>
+        <v>206</v>
       </c>
     </row>
     <row r="498" spans="1:2">
@@ -5836,7 +5830,7 @@
         <v>1229.5</v>
       </c>
       <c r="B498" s="18" t="s">
-        <v>25</v>
+        <v>207</v>
       </c>
     </row>
     <row r="499" spans="1:2">
@@ -5845,7 +5839,7 @@
         <v>2452.5</v>
       </c>
       <c r="B499" s="18" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
     </row>
     <row r="500" spans="1:2">
@@ -5863,7 +5857,7 @@
         <v>1223</v>
       </c>
       <c r="B502" s="18" t="s">
-        <v>24</v>
+        <v>206</v>
       </c>
     </row>
     <row r="503" spans="1:2">
@@ -5871,7 +5865,7 @@
         <v>1229.5</v>
       </c>
       <c r="B503" s="18" t="s">
-        <v>25</v>
+        <v>207</v>
       </c>
     </row>
     <row r="504" spans="1:2">
@@ -5880,7 +5874,7 @@
         <v>2452.5</v>
       </c>
       <c r="B504" s="18" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
     </row>
     <row r="505" spans="1:2">
@@ -5898,7 +5892,7 @@
         <v>1236</v>
       </c>
       <c r="B507" s="18" t="s">
-        <v>26</v>
+        <v>208</v>
       </c>
     </row>
     <row r="508" spans="1:2">
@@ -5906,7 +5900,7 @@
         <v>1242.5</v>
       </c>
       <c r="B508" s="18" t="s">
-        <v>27</v>
+        <v>209</v>
       </c>
     </row>
     <row r="509" spans="1:2">
@@ -5915,7 +5909,7 @@
         <v>2478.5</v>
       </c>
       <c r="B509" s="18" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
     </row>
     <row r="510" spans="1:2">
@@ -5933,7 +5927,7 @@
         <v>1236</v>
       </c>
       <c r="B512" s="18" t="s">
-        <v>26</v>
+        <v>208</v>
       </c>
     </row>
     <row r="513" spans="1:2">
@@ -5941,7 +5935,7 @@
         <v>1242.5</v>
       </c>
       <c r="B513" s="18" t="s">
-        <v>27</v>
+        <v>209</v>
       </c>
     </row>
     <row r="514" spans="1:2">
@@ -5950,7 +5944,7 @@
         <v>2478.5</v>
       </c>
       <c r="B514" s="18" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
     </row>
     <row r="515" spans="1:2">
@@ -5968,7 +5962,7 @@
         <v>1249</v>
       </c>
       <c r="B517" s="18" t="s">
-        <v>28</v>
+        <v>210</v>
       </c>
     </row>
     <row r="518" spans="1:2">
@@ -5976,7 +5970,7 @@
         <v>1255.5</v>
       </c>
       <c r="B518" s="18" t="s">
-        <v>29</v>
+        <v>211</v>
       </c>
     </row>
     <row r="519" spans="1:2">
@@ -5985,7 +5979,7 @@
         <v>2504.5</v>
       </c>
       <c r="B519" s="18" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
     </row>
     <row r="520" spans="1:2">
@@ -6003,7 +5997,7 @@
         <v>1249</v>
       </c>
       <c r="B522" s="18" t="s">
-        <v>28</v>
+        <v>210</v>
       </c>
     </row>
     <row r="523" spans="1:2">
@@ -6011,7 +6005,7 @@
         <v>1255.5</v>
       </c>
       <c r="B523" s="18" t="s">
-        <v>29</v>
+        <v>211</v>
       </c>
     </row>
     <row r="524" spans="1:2">
@@ -6020,7 +6014,7 @@
         <v>2504.5</v>
       </c>
       <c r="B524" s="18" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
     </row>
     <row r="525" spans="1:2">
@@ -6038,7 +6032,7 @@
         <v>1262</v>
       </c>
       <c r="B527" s="18" t="s">
-        <v>30</v>
+        <v>212</v>
       </c>
     </row>
     <row r="528" spans="1:2">
@@ -6046,7 +6040,7 @@
         <v>1268.5</v>
       </c>
       <c r="B528" s="18" t="s">
-        <v>31</v>
+        <v>213</v>
       </c>
     </row>
     <row r="529" spans="1:2">
@@ -6055,7 +6049,7 @@
         <v>2530.5</v>
       </c>
       <c r="B529" s="18" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
     </row>
     <row r="530" spans="1:2">
@@ -6073,7 +6067,7 @@
         <v>1262</v>
       </c>
       <c r="B532" s="18" t="s">
-        <v>30</v>
+        <v>212</v>
       </c>
     </row>
     <row r="533" spans="1:2">
@@ -6081,7 +6075,7 @@
         <v>1268.5</v>
       </c>
       <c r="B533" s="18" t="s">
-        <v>31</v>
+        <v>213</v>
       </c>
     </row>
     <row r="534" spans="1:2">
@@ -6090,7 +6084,7 @@
         <v>2530.5</v>
       </c>
       <c r="B534" s="18" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
     </row>
     <row r="535" spans="1:2">
@@ -6108,7 +6102,7 @@
         <v>1275</v>
       </c>
       <c r="B537" s="18" t="s">
-        <v>32</v>
+        <v>214</v>
       </c>
     </row>
     <row r="538" spans="1:2">
@@ -6116,7 +6110,7 @@
         <v>1281.5</v>
       </c>
       <c r="B538" s="18" t="s">
-        <v>33</v>
+        <v>215</v>
       </c>
     </row>
     <row r="539" spans="1:2">
@@ -6125,7 +6119,7 @@
         <v>2556.5</v>
       </c>
       <c r="B539" s="18" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
     </row>
     <row r="540" spans="1:2">
@@ -6143,7 +6137,7 @@
         <v>1275</v>
       </c>
       <c r="B542" s="18" t="s">
-        <v>32</v>
+        <v>214</v>
       </c>
     </row>
     <row r="543" spans="1:2">
@@ -6151,7 +6145,7 @@
         <v>1281.5</v>
       </c>
       <c r="B543" s="18" t="s">
-        <v>33</v>
+        <v>215</v>
       </c>
     </row>
     <row r="544" spans="1:2">
@@ -6160,7 +6154,7 @@
         <v>2556.5</v>
       </c>
       <c r="B544" s="18" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
     </row>
     <row r="545" spans="1:2">
@@ -6178,7 +6172,7 @@
         <v>1288</v>
       </c>
       <c r="B547" s="18" t="s">
-        <v>34</v>
+        <v>216</v>
       </c>
     </row>
     <row r="548" spans="1:2">
@@ -6186,7 +6180,7 @@
         <v>1294.5</v>
       </c>
       <c r="B548" s="18" t="s">
-        <v>35</v>
+        <v>217</v>
       </c>
     </row>
     <row r="549" spans="1:2">
@@ -6195,7 +6189,7 @@
         <v>2582.5</v>
       </c>
       <c r="B549" s="18" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
     </row>
     <row r="550" spans="1:2">
@@ -6213,7 +6207,7 @@
         <v>1288</v>
       </c>
       <c r="B552" s="18" t="s">
-        <v>34</v>
+        <v>216</v>
       </c>
     </row>
     <row r="553" spans="1:2">
@@ -6221,7 +6215,7 @@
         <v>1294.5</v>
       </c>
       <c r="B553" s="18" t="s">
-        <v>35</v>
+        <v>217</v>
       </c>
     </row>
     <row r="554" spans="1:2">
@@ -6230,7 +6224,7 @@
         <v>2582.5</v>
       </c>
       <c r="B554" s="18" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
     </row>
     <row r="555" spans="1:2">
@@ -6248,7 +6242,7 @@
         <v>1301</v>
       </c>
       <c r="B557" s="18" t="s">
-        <v>36</v>
+        <v>218</v>
       </c>
     </row>
     <row r="558" spans="1:2">
@@ -6256,7 +6250,7 @@
         <v>1307.5</v>
       </c>
       <c r="B558" s="18" t="s">
-        <v>37</v>
+        <v>219</v>
       </c>
     </row>
     <row r="559" spans="1:2">
@@ -6265,7 +6259,7 @@
         <v>2608.5</v>
       </c>
       <c r="B559" s="18" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
     </row>
     <row r="560" spans="1:2">
@@ -6283,7 +6277,7 @@
         <v>1301</v>
       </c>
       <c r="B562" s="18" t="s">
-        <v>36</v>
+        <v>218</v>
       </c>
     </row>
     <row r="563" spans="1:2">
@@ -6291,7 +6285,7 @@
         <v>1307.5</v>
       </c>
       <c r="B563" s="18" t="s">
-        <v>37</v>
+        <v>219</v>
       </c>
     </row>
     <row r="564" spans="1:2">
@@ -6300,7 +6294,7 @@
         <v>2608.5</v>
       </c>
       <c r="B564" s="18" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
     </row>
     <row r="565" spans="1:2">
@@ -6318,7 +6312,7 @@
         <v>1314</v>
       </c>
       <c r="B567" s="18" t="s">
-        <v>38</v>
+        <v>220</v>
       </c>
     </row>
     <row r="568" spans="1:2">
@@ -6326,7 +6320,7 @@
         <v>1320.5</v>
       </c>
       <c r="B568" s="18" t="s">
-        <v>39</v>
+        <v>221</v>
       </c>
     </row>
     <row r="569" spans="1:2">
@@ -6335,7 +6329,7 @@
         <v>2634.5</v>
       </c>
       <c r="B569" s="18" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
     </row>
     <row r="570" spans="1:2">
@@ -6353,7 +6347,7 @@
         <v>1314</v>
       </c>
       <c r="B572" s="18" t="s">
-        <v>38</v>
+        <v>220</v>
       </c>
     </row>
     <row r="573" spans="1:2">
@@ -6361,7 +6355,7 @@
         <v>1320.5</v>
       </c>
       <c r="B573" s="18" t="s">
-        <v>39</v>
+        <v>221</v>
       </c>
     </row>
     <row r="574" spans="1:2">
@@ -6370,7 +6364,7 @@
         <v>2634.5</v>
       </c>
       <c r="B574" s="18" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
     </row>
     <row r="575" spans="1:2">
@@ -6388,7 +6382,7 @@
         <v>1327</v>
       </c>
       <c r="B577" s="18" t="s">
-        <v>40</v>
+        <v>222</v>
       </c>
     </row>
     <row r="578" spans="1:2">
@@ -6396,7 +6390,7 @@
         <v>1333.5</v>
       </c>
       <c r="B578" s="18" t="s">
-        <v>41</v>
+        <v>223</v>
       </c>
     </row>
     <row r="579" spans="1:2">
@@ -6405,7 +6399,7 @@
         <v>2660.5</v>
       </c>
       <c r="B579" s="18" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
     </row>
     <row r="580" spans="1:2">
@@ -6423,7 +6417,7 @@
         <v>1327</v>
       </c>
       <c r="B582" s="18" t="s">
-        <v>40</v>
+        <v>222</v>
       </c>
     </row>
     <row r="583" spans="1:2">
@@ -6431,7 +6425,7 @@
         <v>1333.5</v>
       </c>
       <c r="B583" s="18" t="s">
-        <v>41</v>
+        <v>223</v>
       </c>
     </row>
     <row r="584" spans="1:2">
@@ -6440,7 +6434,7 @@
         <v>2660.5</v>
       </c>
       <c r="B584" s="18" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
     </row>
     <row r="585" spans="1:2">
@@ -6458,7 +6452,7 @@
         <v>1340</v>
       </c>
       <c r="B587" s="18" t="s">
-        <v>42</v>
+        <v>224</v>
       </c>
     </row>
     <row r="588" spans="1:2">
@@ -6466,7 +6460,7 @@
         <v>1346.5</v>
       </c>
       <c r="B588" s="18" t="s">
-        <v>43</v>
+        <v>225</v>
       </c>
     </row>
     <row r="589" spans="1:2">
@@ -6475,7 +6469,7 @@
         <v>2686.5</v>
       </c>
       <c r="B589" s="18" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
     </row>
     <row r="590" spans="1:2">
@@ -6493,7 +6487,7 @@
         <v>1340</v>
       </c>
       <c r="B592" s="18" t="s">
-        <v>42</v>
+        <v>224</v>
       </c>
     </row>
     <row r="593" spans="1:2">
@@ -6501,7 +6495,7 @@
         <v>1346.5</v>
       </c>
       <c r="B593" s="18" t="s">
-        <v>43</v>
+        <v>225</v>
       </c>
     </row>
     <row r="594" spans="1:2">
@@ -6510,7 +6504,7 @@
         <v>2686.5</v>
       </c>
       <c r="B594" s="18" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
     </row>
     <row r="595" spans="1:2">
@@ -6528,7 +6522,7 @@
         <v>1353</v>
       </c>
       <c r="B597" s="18" t="s">
-        <v>44</v>
+        <v>226</v>
       </c>
     </row>
     <row r="598" spans="1:2">
@@ -6536,7 +6530,7 @@
         <v>1359.5</v>
       </c>
       <c r="B598" s="18" t="s">
-        <v>45</v>
+        <v>227</v>
       </c>
     </row>
     <row r="599" spans="1:2">
@@ -6545,7 +6539,7 @@
         <v>2712.5</v>
       </c>
       <c r="B599" s="18" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
     </row>
     <row r="600" spans="1:2">
@@ -6563,7 +6557,7 @@
         <v>1353</v>
       </c>
       <c r="B602" s="18" t="s">
-        <v>44</v>
+        <v>226</v>
       </c>
     </row>
     <row r="603" spans="1:2">
@@ -6571,7 +6565,7 @@
         <v>1359.5</v>
       </c>
       <c r="B603" s="18" t="s">
-        <v>45</v>
+        <v>227</v>
       </c>
     </row>
     <row r="604" spans="1:2">
@@ -6580,7 +6574,7 @@
         <v>2712.5</v>
       </c>
       <c r="B604" s="18" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
     </row>
     <row r="605" spans="1:2">
@@ -6598,7 +6592,7 @@
         <v>1366</v>
       </c>
       <c r="B607" s="18" t="s">
-        <v>46</v>
+        <v>228</v>
       </c>
     </row>
     <row r="608" spans="1:2">
@@ -6606,7 +6600,7 @@
         <v>1372.5</v>
       </c>
       <c r="B608" s="18" t="s">
-        <v>47</v>
+        <v>229</v>
       </c>
     </row>
     <row r="609" spans="1:2">
@@ -6615,7 +6609,7 @@
         <v>2738.5</v>
       </c>
       <c r="B609" s="18" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
     </row>
     <row r="610" spans="1:2">
@@ -6633,7 +6627,7 @@
         <v>1366</v>
       </c>
       <c r="B612" s="18" t="s">
-        <v>46</v>
+        <v>228</v>
       </c>
     </row>
     <row r="613" spans="1:2">
@@ -6641,7 +6635,7 @@
         <v>1372.5</v>
       </c>
       <c r="B613" s="18" t="s">
-        <v>47</v>
+        <v>229</v>
       </c>
     </row>
     <row r="614" spans="1:2">
@@ -6650,7 +6644,7 @@
         <v>2738.5</v>
       </c>
       <c r="B614" s="18" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
     </row>
     <row r="615" spans="1:2">
@@ -6668,7 +6662,7 @@
         <v>1379</v>
       </c>
       <c r="B617" s="18" t="s">
-        <v>48</v>
+        <v>230</v>
       </c>
     </row>
     <row r="618" spans="1:2">
@@ -6676,7 +6670,7 @@
         <v>1385.5</v>
       </c>
       <c r="B618" s="18" t="s">
-        <v>49</v>
+        <v>231</v>
       </c>
     </row>
     <row r="619" spans="1:2">
@@ -6685,7 +6679,7 @@
         <v>2764.5</v>
       </c>
       <c r="B619" s="18" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
     </row>
     <row r="620" spans="1:2">
@@ -6703,7 +6697,7 @@
         <v>1379</v>
       </c>
       <c r="B622" s="18" t="s">
-        <v>48</v>
+        <v>230</v>
       </c>
     </row>
     <row r="623" spans="1:2">
@@ -6711,7 +6705,7 @@
         <v>1385.5</v>
       </c>
       <c r="B623" s="18" t="s">
-        <v>49</v>
+        <v>231</v>
       </c>
     </row>
     <row r="624" spans="1:2">
@@ -6720,7 +6714,7 @@
         <v>2764.5</v>
       </c>
       <c r="B624" s="18" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
     </row>
     <row r="625" spans="1:2">
@@ -6738,7 +6732,7 @@
         <v>1392</v>
       </c>
       <c r="B627" s="18" t="s">
-        <v>50</v>
+        <v>232</v>
       </c>
     </row>
     <row r="628" spans="1:2">
@@ -6746,7 +6740,7 @@
         <v>1398.5</v>
       </c>
       <c r="B628" s="18" t="s">
-        <v>51</v>
+        <v>233</v>
       </c>
     </row>
     <row r="629" spans="1:2">
@@ -6755,7 +6749,7 @@
         <v>2790.5</v>
       </c>
       <c r="B629" s="18" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
     </row>
     <row r="630" spans="1:2">
@@ -6773,7 +6767,7 @@
         <v>1392</v>
       </c>
       <c r="B632" s="18" t="s">
-        <v>50</v>
+        <v>232</v>
       </c>
     </row>
     <row r="633" spans="1:2">
@@ -6781,7 +6775,7 @@
         <v>1398.5</v>
       </c>
       <c r="B633" s="18" t="s">
-        <v>51</v>
+        <v>233</v>
       </c>
     </row>
     <row r="634" spans="1:2">
@@ -6790,7 +6784,7 @@
         <v>2790.5</v>
       </c>
       <c r="B634" s="18" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
     </row>
     <row r="635" spans="1:2">
@@ -6808,7 +6802,7 @@
         <v>1405</v>
       </c>
       <c r="B637" s="18" t="s">
-        <v>52</v>
+        <v>234</v>
       </c>
     </row>
     <row r="638" spans="1:2">
@@ -6816,7 +6810,7 @@
         <v>1411.5</v>
       </c>
       <c r="B638" s="18" t="s">
-        <v>53</v>
+        <v>235</v>
       </c>
     </row>
     <row r="639" spans="1:2">
@@ -6825,7 +6819,7 @@
         <v>2816.5</v>
       </c>
       <c r="B639" s="18" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
     </row>
     <row r="640" spans="1:2">
@@ -6843,7 +6837,7 @@
         <v>1405</v>
       </c>
       <c r="B642" s="18" t="s">
-        <v>52</v>
+        <v>234</v>
       </c>
     </row>
     <row r="643" spans="1:2">
@@ -6851,7 +6845,7 @@
         <v>1411.5</v>
       </c>
       <c r="B643" s="18" t="s">
-        <v>53</v>
+        <v>235</v>
       </c>
     </row>
     <row r="644" spans="1:2">
@@ -6860,7 +6854,7 @@
         <v>2816.5</v>
       </c>
       <c r="B644" s="18" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
     </row>
     <row r="645" spans="1:2">
@@ -6878,7 +6872,7 @@
         <v>1418</v>
       </c>
       <c r="B647" s="18" t="s">
-        <v>54</v>
+        <v>236</v>
       </c>
     </row>
     <row r="648" spans="1:2">
@@ -6886,7 +6880,7 @@
         <v>1424.5</v>
       </c>
       <c r="B648" s="18" t="s">
-        <v>55</v>
+        <v>237</v>
       </c>
     </row>
     <row r="649" spans="1:2">
@@ -6895,7 +6889,7 @@
         <v>2842.5</v>
       </c>
       <c r="B649" s="18" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
     </row>
     <row r="650" spans="1:2">
@@ -6913,7 +6907,7 @@
         <v>1418</v>
       </c>
       <c r="B652" s="18" t="s">
-        <v>54</v>
+        <v>236</v>
       </c>
     </row>
     <row r="653" spans="1:2">
@@ -6921,7 +6915,7 @@
         <v>1424.5</v>
       </c>
       <c r="B653" s="18" t="s">
-        <v>55</v>
+        <v>237</v>
       </c>
     </row>
     <row r="654" spans="1:2">
@@ -6930,7 +6924,7 @@
         <v>2842.5</v>
       </c>
       <c r="B654" s="18" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
     </row>
     <row r="655" spans="1:2">
@@ -6948,7 +6942,7 @@
         <v>1431</v>
       </c>
       <c r="B657" s="18" t="s">
-        <v>56</v>
+        <v>238</v>
       </c>
     </row>
     <row r="658" spans="1:2">
@@ -6956,7 +6950,7 @@
         <v>1437.5</v>
       </c>
       <c r="B658" s="18" t="s">
-        <v>57</v>
+        <v>239</v>
       </c>
     </row>
     <row r="659" spans="1:2">
@@ -6965,7 +6959,7 @@
         <v>2868.5</v>
       </c>
       <c r="B659" s="18" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
     </row>
     <row r="660" spans="1:2">
@@ -6983,7 +6977,7 @@
         <v>1431</v>
       </c>
       <c r="B662" s="18" t="s">
-        <v>56</v>
+        <v>238</v>
       </c>
     </row>
     <row r="663" spans="1:2">
@@ -6991,7 +6985,7 @@
         <v>1437.5</v>
       </c>
       <c r="B663" s="18" t="s">
-        <v>57</v>
+        <v>239</v>
       </c>
     </row>
     <row r="664" spans="1:2">
@@ -7000,7 +6994,7 @@
         <v>2868.5</v>
       </c>
       <c r="B664" s="18" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
     </row>
     <row r="665" spans="1:2">
@@ -7018,7 +7012,7 @@
         <v>1444</v>
       </c>
       <c r="B667" s="18" t="s">
-        <v>58</v>
+        <v>240</v>
       </c>
     </row>
     <row r="668" spans="1:2">
@@ -7026,7 +7020,7 @@
         <v>1450.5</v>
       </c>
       <c r="B668" s="18" t="s">
-        <v>59</v>
+        <v>241</v>
       </c>
     </row>
     <row r="669" spans="1:2">
@@ -7035,7 +7029,7 @@
         <v>2894.5</v>
       </c>
       <c r="B669" s="18" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
     </row>
     <row r="670" spans="1:2">
@@ -7053,7 +7047,7 @@
         <v>1444</v>
       </c>
       <c r="B672" s="18" t="s">
-        <v>58</v>
+        <v>240</v>
       </c>
     </row>
     <row r="673" spans="1:2">
@@ -7061,7 +7055,7 @@
         <v>1450.5</v>
       </c>
       <c r="B673" s="18" t="s">
-        <v>59</v>
+        <v>241</v>
       </c>
     </row>
     <row r="674" spans="1:2">
@@ -7070,7 +7064,7 @@
         <v>2894.5</v>
       </c>
       <c r="B674" s="18" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
     </row>
     <row r="675" spans="1:2">
@@ -7088,7 +7082,7 @@
         <v>1457</v>
       </c>
       <c r="B677" s="18" t="s">
-        <v>60</v>
+        <v>242</v>
       </c>
     </row>
     <row r="678" spans="1:2">
@@ -7096,7 +7090,7 @@
         <v>1463.5</v>
       </c>
       <c r="B678" s="18" t="s">
-        <v>61</v>
+        <v>243</v>
       </c>
     </row>
     <row r="679" spans="1:2">
@@ -7105,7 +7099,7 @@
         <v>2920.5</v>
       </c>
       <c r="B679" s="18" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
     </row>
     <row r="680" spans="1:2">
@@ -7123,7 +7117,7 @@
         <v>1457</v>
       </c>
       <c r="B682" s="18" t="s">
-        <v>60</v>
+        <v>242</v>
       </c>
     </row>
     <row r="683" spans="1:2">
@@ -7131,7 +7125,7 @@
         <v>1463.5</v>
       </c>
       <c r="B683" s="18" t="s">
-        <v>61</v>
+        <v>243</v>
       </c>
     </row>
     <row r="684" spans="1:2">
@@ -7140,7 +7134,7 @@
         <v>2920.5</v>
       </c>
       <c r="B684" s="18" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
     </row>
     <row r="685" spans="1:2">
@@ -7158,7 +7152,7 @@
         <v>1470</v>
       </c>
       <c r="B687" s="18" t="s">
-        <v>62</v>
+        <v>244</v>
       </c>
     </row>
     <row r="688" spans="1:2">
@@ -7166,7 +7160,7 @@
         <v>1476.5</v>
       </c>
       <c r="B688" s="18" t="s">
-        <v>63</v>
+        <v>245</v>
       </c>
     </row>
     <row r="689" spans="1:2">
@@ -7175,7 +7169,7 @@
         <v>2946.5</v>
       </c>
       <c r="B689" s="18" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
     </row>
     <row r="690" spans="1:2">
@@ -7193,7 +7187,7 @@
         <v>1470</v>
       </c>
       <c r="B692" s="18" t="s">
-        <v>62</v>
+        <v>244</v>
       </c>
     </row>
     <row r="693" spans="1:2">
@@ -7201,7 +7195,7 @@
         <v>1476.5</v>
       </c>
       <c r="B693" s="18" t="s">
-        <v>63</v>
+        <v>245</v>
       </c>
     </row>
     <row r="694" spans="1:2">
@@ -7210,7 +7204,7 @@
         <v>2946.5</v>
       </c>
       <c r="B694" s="18" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
     </row>
     <row r="695" spans="1:2">
@@ -7228,7 +7222,7 @@
         <v>1483</v>
       </c>
       <c r="B697" s="18" t="s">
-        <v>64</v>
+        <v>246</v>
       </c>
     </row>
     <row r="698" spans="1:2">
@@ -7236,7 +7230,7 @@
         <v>1489.5</v>
       </c>
       <c r="B698" s="18" t="s">
-        <v>65</v>
+        <v>247</v>
       </c>
     </row>
     <row r="699" spans="1:2">
@@ -7245,7 +7239,7 @@
         <v>2972.5</v>
       </c>
       <c r="B699" s="18" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
     </row>
     <row r="700" spans="1:2">
@@ -7263,7 +7257,7 @@
         <v>1483</v>
       </c>
       <c r="B702" s="18" t="s">
-        <v>64</v>
+        <v>246</v>
       </c>
     </row>
     <row r="703" spans="1:2">
@@ -7271,7 +7265,7 @@
         <v>1489.5</v>
       </c>
       <c r="B703" s="18" t="s">
-        <v>65</v>
+        <v>247</v>
       </c>
     </row>
     <row r="704" spans="1:2">
@@ -7280,7 +7274,7 @@
         <v>2972.5</v>
       </c>
       <c r="B704" s="18" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
     </row>
     <row r="705" spans="1:2">
@@ -7298,7 +7292,7 @@
         <v>1496</v>
       </c>
       <c r="B707" s="18" t="s">
-        <v>66</v>
+        <v>248</v>
       </c>
     </row>
     <row r="708" spans="1:2">
@@ -7306,7 +7300,7 @@
         <v>1502.5</v>
       </c>
       <c r="B708" s="18" t="s">
-        <v>67</v>
+        <v>249</v>
       </c>
     </row>
     <row r="709" spans="1:2">
@@ -7315,7 +7309,7 @@
         <v>2998.5</v>
       </c>
       <c r="B709" s="18" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
     </row>
     <row r="710" spans="1:2">
@@ -7333,7 +7327,7 @@
         <v>1496</v>
       </c>
       <c r="B712" s="18" t="s">
-        <v>66</v>
+        <v>248</v>
       </c>
     </row>
     <row r="713" spans="1:2">
@@ -7341,7 +7335,7 @@
         <v>1502.5</v>
       </c>
       <c r="B713" s="18" t="s">
-        <v>67</v>
+        <v>249</v>
       </c>
     </row>
     <row r="714" spans="1:2">
@@ -7350,7 +7344,7 @@
         <v>2998.5</v>
       </c>
       <c r="B714" s="18" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
     </row>
     <row r="715" spans="1:2">
@@ -7368,7 +7362,7 @@
         <v>1509</v>
       </c>
       <c r="B717" s="18" t="s">
-        <v>68</v>
+        <v>250</v>
       </c>
     </row>
     <row r="718" spans="1:2">
@@ -7376,7 +7370,7 @@
         <v>1515.5</v>
       </c>
       <c r="B718" s="18" t="s">
-        <v>69</v>
+        <v>251</v>
       </c>
     </row>
     <row r="719" spans="1:2">
@@ -7385,7 +7379,7 @@
         <v>3024.5</v>
       </c>
       <c r="B719" s="18" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
     </row>
     <row r="720" spans="1:2">
@@ -7403,7 +7397,7 @@
         <v>1509</v>
       </c>
       <c r="B722" s="18" t="s">
-        <v>68</v>
+        <v>250</v>
       </c>
     </row>
     <row r="723" spans="1:2">
@@ -7411,7 +7405,7 @@
         <v>1515.5</v>
       </c>
       <c r="B723" s="18" t="s">
-        <v>69</v>
+        <v>251</v>
       </c>
     </row>
     <row r="724" spans="1:2">
@@ -7420,7 +7414,7 @@
         <v>3024.5</v>
       </c>
       <c r="B724" s="18" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
     </row>
     <row r="725" spans="1:2">
@@ -7438,7 +7432,7 @@
         <v>1522</v>
       </c>
       <c r="B727" s="18" t="s">
-        <v>70</v>
+        <v>252</v>
       </c>
     </row>
     <row r="728" spans="1:2">
@@ -7446,7 +7440,7 @@
         <v>1528.5</v>
       </c>
       <c r="B728" s="18" t="s">
-        <v>71</v>
+        <v>253</v>
       </c>
     </row>
     <row r="729" spans="1:2">
@@ -7455,7 +7449,7 @@
         <v>3050.5</v>
       </c>
       <c r="B729" s="18" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
     </row>
     <row r="730" spans="1:2">
@@ -7473,7 +7467,7 @@
         <v>1522</v>
       </c>
       <c r="B732" s="18" t="s">
-        <v>70</v>
+        <v>252</v>
       </c>
     </row>
     <row r="733" spans="1:2">
@@ -7481,7 +7475,7 @@
         <v>1528.5</v>
       </c>
       <c r="B733" s="18" t="s">
-        <v>71</v>
+        <v>253</v>
       </c>
     </row>
     <row r="734" spans="1:2">
@@ -7490,7 +7484,7 @@
         <v>3050.5</v>
       </c>
       <c r="B734" s="18" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
     </row>
     <row r="735" spans="1:2">
@@ -7508,7 +7502,7 @@
         <v>1535</v>
       </c>
       <c r="B737" s="18" t="s">
-        <v>72</v>
+        <v>254</v>
       </c>
     </row>
     <row r="738" spans="1:2">
@@ -7516,7 +7510,7 @@
         <v>1541.5</v>
       </c>
       <c r="B738" s="18" t="s">
-        <v>73</v>
+        <v>255</v>
       </c>
     </row>
     <row r="739" spans="1:2">
@@ -7525,7 +7519,7 @@
         <v>3076.5</v>
       </c>
       <c r="B739" s="18" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
     </row>
     <row r="740" spans="1:2">
@@ -7543,7 +7537,7 @@
         <v>1535</v>
       </c>
       <c r="B742" s="18" t="s">
-        <v>72</v>
+        <v>254</v>
       </c>
     </row>
     <row r="743" spans="1:2">
@@ -7551,14 +7545,13 @@
         <v>1541.5</v>
       </c>
       <c r="B743" s="18" t="s">
-        <v>73</v>
+        <v>255</v>
       </c>
     </row>
   </sheetData>
   <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <ignoredErrors>
     <ignoredError sqref="A8 A231" formulaRange="1"/>
   </ignoredErrors>
